--- a/Eindafrekening/input_master.xlsx
+++ b/Eindafrekening/input_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryanrent.sharepoint.com/sites/RyanRent/Gedeelde documenten/General/01_RyanRent&amp;Co/Aljereau/Eindafrekening Generator/Eindafrekening/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryanrent.sharepoint.com/sites/RyanRent/Gedeelde documenten/General/01_RyanRent&amp;Co/Aljereau/Eindafrekening Generator/Eindafrekening/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C94E5109-719F-F640-B984-0208196961FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_ABCAF867500A081E9D6F9BB63D8E2E4C00FD8B6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F89133-7C8F-A542-B1E3-4555687B2F79}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1342">
   <si>
     <t>COMPLETENESS DASHBOARD</t>
   </si>
@@ -956,16 +956,28 @@
     <t>Johan ven der Burg</t>
   </si>
   <si>
+    <t>Burgemeester Baumannlaan 175H</t>
+  </si>
+  <si>
+    <t>0392</t>
+  </si>
+  <si>
+    <t>Detaconcept Uitzendgroep B.V.</t>
+  </si>
+  <si>
+    <t>KPN</t>
+  </si>
+  <si>
     <t>Burgemeester Cramerlaan 82</t>
   </si>
   <si>
     <t>0276</t>
   </si>
   <si>
-    <t>Detaconcept Uitzendgroep B.V.</t>
-  </si>
-  <si>
-    <t>KPN</t>
+    <t>Dhr D. Pronk en Mw y. Pronk - Dijkhuizen</t>
+  </si>
+  <si>
+    <t>L&amp;T BV</t>
   </si>
   <si>
     <t>Burgemeester Crezeelaan 76</t>
@@ -974,10 +986,10 @@
     <t>0275</t>
   </si>
   <si>
-    <t>Dhr D. Pronk en Mw y. Pronk - Dijkhuizen</t>
-  </si>
-  <si>
-    <t>L&amp;T BV</t>
+    <t>Dhr I.B. Stefan</t>
+  </si>
+  <si>
+    <t>L. Schilstra / Eigenaar.nl</t>
   </si>
   <si>
     <t>Burgemeester Stulemeijerlaan 71</t>
@@ -986,10 +998,10 @@
     <t>0292</t>
   </si>
   <si>
-    <t>Dhr I.B. Stefan</t>
-  </si>
-  <si>
-    <t>L. Schilstra / Eigenaar.nl</t>
+    <t>Dhr. A. Dorin</t>
+  </si>
+  <si>
+    <t>Leendert Keizer</t>
   </si>
   <si>
     <t>Chopinstraat 33C</t>
@@ -998,10 +1010,10 @@
     <t>0160</t>
   </si>
   <si>
-    <t>Dhr. A. Dorin</t>
-  </si>
-  <si>
-    <t>Leendert Keizer</t>
+    <t>Dhr. A. Ros</t>
+  </si>
+  <si>
+    <t>Loodgieter Pietersen</t>
   </si>
   <si>
     <t xml:space="preserve">Chopinstraat 35A </t>
@@ -1010,10 +1022,10 @@
     <t>0131</t>
   </si>
   <si>
-    <t>Dhr. A. Ros</t>
-  </si>
-  <si>
-    <t>Loodgieter Pietersen</t>
+    <t>Dhr. B. Vlastuin</t>
+  </si>
+  <si>
+    <t>M&amp;M Hendriks</t>
   </si>
   <si>
     <t>Chopinstraat 39C</t>
@@ -1022,10 +1034,10 @@
     <t>0026</t>
   </si>
   <si>
-    <t>Dhr. B. Vlastuin</t>
-  </si>
-  <si>
-    <t>M&amp;M Hendriks</t>
+    <t>Dhr. J.L. Meerding</t>
+  </si>
+  <si>
+    <t>M. Dogan</t>
   </si>
   <si>
     <t>Cloosterstraat 23A</t>
@@ -1034,10 +1046,10 @@
     <t>0370</t>
   </si>
   <si>
-    <t>Dhr. J.L. Meerding</t>
-  </si>
-  <si>
-    <t>M. Dogan</t>
+    <t>Dhr. J.M.R. Boringa</t>
+  </si>
+  <si>
+    <t>M. Farajzadeh</t>
   </si>
   <si>
     <t>Coehoorn van Scheltingaweg 12</t>
@@ -1046,10 +1058,10 @@
     <t>0051</t>
   </si>
   <si>
-    <t>Dhr. J.M.R. Boringa</t>
-  </si>
-  <si>
-    <t>M. Farajzadeh</t>
+    <t>Dhr. M. Moeilijker</t>
+  </si>
+  <si>
+    <t>M. Kathiravelu</t>
   </si>
   <si>
     <t>Coehoorn van Scheltingaweg 66</t>
@@ -1058,10 +1070,10 @@
     <t>0052</t>
   </si>
   <si>
-    <t>Dhr. M. Moeilijker</t>
-  </si>
-  <si>
-    <t>M. Kathiravelu</t>
+    <t>Dhr. R Verspui</t>
+  </si>
+  <si>
+    <t>M. Koolhaas</t>
   </si>
   <si>
     <t>Compierekade 15</t>
@@ -1070,10 +1082,10 @@
     <t>0345</t>
   </si>
   <si>
-    <t>Dhr. R Verspui</t>
-  </si>
-  <si>
-    <t>M. Koolhaas</t>
+    <t>Dhr. R. Bekken</t>
+  </si>
+  <si>
+    <t>M. Moeilijker</t>
   </si>
   <si>
     <t xml:space="preserve">Coornhertstraat 95 </t>
@@ -1082,10 +1094,10 @@
     <t>0162</t>
   </si>
   <si>
-    <t>Dhr. R. Bekken</t>
-  </si>
-  <si>
-    <t>M. Moeilijker</t>
+    <t>Dhr. R. J. Beking</t>
+  </si>
+  <si>
+    <t>M. Poel</t>
   </si>
   <si>
     <t xml:space="preserve">Cubalaan 25 </t>
@@ -1094,10 +1106,10 @@
     <t>0375</t>
   </si>
   <si>
-    <t>Dhr. R. J. Beking</t>
-  </si>
-  <si>
-    <t>M. Poel</t>
+    <t>Dhr. SWJ Colpaert en Mevr. J. Michielsen</t>
+  </si>
+  <si>
+    <t>M.B. Kewal</t>
   </si>
   <si>
     <t>Curacaolaan 24</t>
@@ -1106,10 +1118,10 @@
     <t>0163</t>
   </si>
   <si>
-    <t>Dhr. SWJ Colpaert en Mevr. J. Michielsen</t>
-  </si>
-  <si>
-    <t>M.B. Kewal</t>
+    <t>Dhr. T. Roestenberg en Mw. Roestenberg - Hustinx</t>
+  </si>
+  <si>
+    <t>M.C. Mostert</t>
   </si>
   <si>
     <t>Curacaolaan 88</t>
@@ -1118,10 +1130,10 @@
     <t>0030</t>
   </si>
   <si>
-    <t>Dhr. T. Roestenberg en Mw. Roestenberg - Hustinx</t>
-  </si>
-  <si>
-    <t>M.C. Mostert</t>
+    <t>Direct Rendement B.V.</t>
+  </si>
+  <si>
+    <t>Maatschap vd Vlist -Teuben</t>
   </si>
   <si>
     <t xml:space="preserve">Curcumastraat 39 </t>
@@ -1130,10 +1142,10 @@
     <t>0053</t>
   </si>
   <si>
-    <t>Direct Rendement B.V.</t>
-  </si>
-  <si>
-    <t>Maatschap vd Vlist -Teuben</t>
+    <t>Duijndam Personeelsdiensten B.V.</t>
+  </si>
+  <si>
+    <t>Martens JG / Van Tetering CFP</t>
   </si>
   <si>
     <t>Datheenstraat 255</t>
@@ -1142,10 +1154,10 @@
     <t>0151</t>
   </si>
   <si>
-    <t>Duijndam Personeelsdiensten B.V.</t>
-  </si>
-  <si>
-    <t>Martens JG / Van Tetering CFP</t>
+    <t>Dumanli</t>
+  </si>
+  <si>
+    <t>Meershoek</t>
   </si>
   <si>
     <t>De Driesprong 17</t>
@@ -1154,10 +1166,10 @@
     <t>0165</t>
   </si>
   <si>
-    <t>Dumanli</t>
-  </si>
-  <si>
-    <t>Meershoek</t>
+    <t>Dunaj Projekty SRO</t>
+  </si>
+  <si>
+    <t>MvB Services BV (Meindert van Buuren)</t>
   </si>
   <si>
     <t>De Gasperistraat 11</t>
@@ -1166,10 +1178,10 @@
     <t>0054</t>
   </si>
   <si>
-    <t>Dunaj Projekty SRO</t>
-  </si>
-  <si>
-    <t>MvB Services BV (Meindert van Buuren)</t>
+    <t>Dutch Ink</t>
+  </si>
+  <si>
+    <t>Orange Invesments Group</t>
   </si>
   <si>
     <t>De Haak, Zekkenstraat 31A</t>
@@ -1178,10 +1190,10 @@
     <t>0288</t>
   </si>
   <si>
-    <t>Dutch Ink</t>
-  </si>
-  <si>
-    <t>Orange Invesments Group</t>
+    <t>Dutch Shipyard B.V.</t>
+  </si>
+  <si>
+    <t>Orange Investments Group</t>
   </si>
   <si>
     <t>De Haak, Zekkenstraat 31B</t>
@@ -1190,10 +1202,10 @@
     <t>0289</t>
   </si>
   <si>
-    <t>Dutch Shipyard B.V.</t>
-  </si>
-  <si>
-    <t>Orange Investments Group</t>
+    <t>Dynalinx B.V.</t>
+  </si>
+  <si>
+    <t>P. Nederstigt</t>
   </si>
   <si>
     <t>De Haak, Zekkenstraat 56</t>
@@ -1202,10 +1214,10 @@
     <t>0290</t>
   </si>
   <si>
-    <t>Dynalinx B.V.</t>
-  </si>
-  <si>
-    <t>P. Nederstigt</t>
+    <t>E Rebel</t>
+  </si>
+  <si>
+    <t>P. Ter Haar - Ros</t>
   </si>
   <si>
     <t>De Hooidollen 606</t>
@@ -1214,10 +1226,10 @@
     <t>0056</t>
   </si>
   <si>
-    <t>E Rebel</t>
-  </si>
-  <si>
-    <t>P. Ter Haar - Ros</t>
+    <t>E.C. Koornneef</t>
+  </si>
+  <si>
+    <t>PRMD</t>
   </si>
   <si>
     <t>Deensestraat 6A2</t>
@@ -1226,10 +1238,10 @@
     <t>0153</t>
   </si>
   <si>
-    <t>E.C. Koornneef</t>
-  </si>
-  <si>
-    <t>PRMD</t>
+    <t>E.C. Laus (Landsteinerhof 68)</t>
+  </si>
+  <si>
+    <t>Parkwonen</t>
   </si>
   <si>
     <t>Desiree Geeraertstraat 1 B</t>
@@ -1238,10 +1250,10 @@
     <t>0023</t>
   </si>
   <si>
-    <t>E.C. Laus (Landsteinerhof 68)</t>
-  </si>
-  <si>
-    <t>Parkwonen</t>
+    <t>E.C. Laus / K. van Elk Landsteinerhof</t>
+  </si>
+  <si>
+    <t>Quadrant Vastgoed B.V.</t>
   </si>
   <si>
     <t>Desiree Geeraertstraat 1 C</t>
@@ -1250,10 +1262,10 @@
     <t>0024</t>
   </si>
   <si>
-    <t>E.C. Laus / K. van Elk Landsteinerhof</t>
-  </si>
-  <si>
-    <t>Quadrant Vastgoed B.V.</t>
+    <t>EG Facility &amp; Services BV</t>
+  </si>
+  <si>
+    <t>R. Basil</t>
   </si>
   <si>
     <t>Deugenweerd 18</t>
@@ -1262,10 +1274,10 @@
     <t>0058</t>
   </si>
   <si>
-    <t>EG Facility &amp; Services BV</t>
-  </si>
-  <si>
-    <t>R. Basil</t>
+    <t>ERGO Construction doo</t>
+  </si>
+  <si>
+    <t>R. Bekken</t>
   </si>
   <si>
     <t>Dieptol 63</t>
@@ -1274,10 +1286,10 @@
     <t>0059</t>
   </si>
   <si>
-    <t>ERGO Construction doo</t>
-  </si>
-  <si>
-    <t>R. Bekken</t>
+    <t>EU Facility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Boringa </t>
   </si>
   <si>
     <t>Dorpsstraat 48</t>
@@ -1286,10 +1298,10 @@
     <t>0354</t>
   </si>
   <si>
-    <t>EU Facility Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. Boringa </t>
+    <t>EWLIT Sp.Z.O.O.SP.K</t>
+  </si>
+  <si>
+    <t>R. Bouius</t>
   </si>
   <si>
     <t xml:space="preserve">Dorpsstraat 73 </t>
@@ -1298,10 +1310,10 @@
     <t>0066</t>
   </si>
   <si>
-    <t>EWLIT Sp.Z.O.O.SP.K</t>
-  </si>
-  <si>
-    <t>R. Bouius</t>
+    <t>Eastmen</t>
+  </si>
+  <si>
+    <t>R. Paalman</t>
   </si>
   <si>
     <t>Dorpstraat 48</t>
@@ -1310,10 +1322,10 @@
     <t>0203</t>
   </si>
   <si>
-    <t>Eastmen</t>
-  </si>
-  <si>
-    <t>R. Paalman</t>
+    <t>Eastmen Human Resources B.V.</t>
+  </si>
+  <si>
+    <t>R. Ras</t>
   </si>
   <si>
     <t xml:space="preserve">Dwarsweg 44 </t>
@@ -1322,10 +1334,10 @@
     <t>0061</t>
   </si>
   <si>
-    <t>Eastmen Human Resources B.V.</t>
-  </si>
-  <si>
-    <t>R. Ras</t>
+    <t>Easyjob People</t>
+  </si>
+  <si>
+    <t>R. Verspui</t>
   </si>
   <si>
     <t>Eendrachtstraat 22</t>
@@ -1334,10 +1346,10 @@
     <t>0062</t>
   </si>
   <si>
-    <t>Easyjob People</t>
-  </si>
-  <si>
-    <t>R. Verspui</t>
+    <t>Edy Comert BV</t>
+  </si>
+  <si>
+    <t>Risa Beheer</t>
   </si>
   <si>
     <t>Elisadonk 220</t>
@@ -1346,10 +1358,10 @@
     <t>0136</t>
   </si>
   <si>
-    <t>Edy Comert BV</t>
-  </si>
-  <si>
-    <t>Risa Beheer</t>
+    <t>Edy Comert SRL</t>
+  </si>
+  <si>
+    <t>Robert de Jonge</t>
   </si>
   <si>
     <t xml:space="preserve">Energieweg 40 </t>
@@ -1358,10 +1370,10 @@
     <t>0063</t>
   </si>
   <si>
-    <t>Edy Comert SRL</t>
-  </si>
-  <si>
-    <t>Robert de Jonge</t>
+    <t>Eemsdelta Housing B.V.</t>
+  </si>
+  <si>
+    <t>Roestenberg</t>
   </si>
   <si>
     <t>Engelsestraat 16L1</t>
@@ -1370,10 +1382,10 @@
     <t>0168</t>
   </si>
   <si>
-    <t>Eemsdelta Housing B.V.</t>
-  </si>
-  <si>
-    <t>Roestenberg</t>
+    <t>Eigenaren van Dieptol 63</t>
+  </si>
+  <si>
+    <t>Ruva Vastgoed B.V.</t>
   </si>
   <si>
     <t>Engelsestraat 16L3</t>
@@ -1382,10 +1394,10 @@
     <t>0095</t>
   </si>
   <si>
-    <t>Eigenaren van Dieptol 63</t>
-  </si>
-  <si>
-    <t>Ruva Vastgoed B.V.</t>
+    <t>Eizema Heerenveen Vastgoed b.v.</t>
+  </si>
+  <si>
+    <t>S. Bakker / Eigenaar.nl</t>
   </si>
   <si>
     <t>Enk 6</t>
@@ -1394,10 +1406,10 @@
     <t>0064</t>
   </si>
   <si>
-    <t>Eizema Heerenveen Vastgoed b.v.</t>
-  </si>
-  <si>
-    <t>S. Bakker / Eigenaar.nl</t>
+    <t>Employ</t>
+  </si>
+  <si>
+    <t>S. Isaku</t>
   </si>
   <si>
     <t>Enschotsestraat 163</t>
@@ -1406,10 +1418,10 @@
     <t>0006</t>
   </si>
   <si>
-    <t>Employ</t>
-  </si>
-  <si>
-    <t>S. Isaku</t>
+    <t>Employ Facilitair B.V.</t>
+  </si>
+  <si>
+    <t>S. Kleiren</t>
   </si>
   <si>
     <t xml:space="preserve">Esdoornlaan 68 </t>
@@ -1418,10 +1430,10 @@
     <t>0065</t>
   </si>
   <si>
-    <t>Employ Facilitair B.V.</t>
-  </si>
-  <si>
-    <t>S. Kleiren</t>
+    <t>Estra Logistics Systems B.V.</t>
+  </si>
+  <si>
+    <t>S. Raats (123Wonen)</t>
   </si>
   <si>
     <t>F.Erensstraat 21</t>
@@ -1430,10 +1442,10 @@
     <t>0068</t>
   </si>
   <si>
-    <t>Estra Logistics Systems B.V.</t>
-  </si>
-  <si>
-    <t>S. Raats (123Wonen)</t>
+    <t>Euromontur Asemblies SL.</t>
+  </si>
+  <si>
+    <t>Schoonmaakbedrijf Frisse Start</t>
   </si>
   <si>
     <t>Fabristraat 34A</t>
@@ -1442,10 +1454,10 @@
     <t>0093</t>
   </si>
   <si>
-    <t>Euromontur Asemblies SL.</t>
-  </si>
-  <si>
-    <t>Schoonmaakbedrijf Frisse Start</t>
+    <t>Europe-jobs B.V.</t>
+  </si>
+  <si>
+    <t>Sill Marinus Dijkstra Vastgoedbeheer)</t>
   </si>
   <si>
     <t>Fabristraat 34B</t>
@@ -1454,10 +1466,10 @@
     <t>0094</t>
   </si>
   <si>
-    <t>Europe-jobs B.V.</t>
-  </si>
-  <si>
-    <t>Sill Marinus Dijkstra Vastgoedbeheer)</t>
+    <t>European Business Brokers</t>
+  </si>
+  <si>
+    <t>Sjoerd Dolstra</t>
   </si>
   <si>
     <t>Fenacoliuslaan 56B</t>
@@ -1466,10 +1478,10 @@
     <t>0273</t>
   </si>
   <si>
-    <t>European Business Brokers</t>
-  </si>
-  <si>
-    <t>Sjoerd Dolstra</t>
+    <t>F. Veurink en P. Neleman</t>
+  </si>
+  <si>
+    <t>Stef Kleijweg</t>
   </si>
   <si>
     <t>Flankstraat 11</t>
@@ -1478,10 +1490,10 @@
     <t>0331</t>
   </si>
   <si>
-    <t>F. Veurink en P. Neleman</t>
-  </si>
-  <si>
-    <t>Stef Kleijweg</t>
+    <t>FGM Solar Renewable S.R.L.</t>
+  </si>
+  <si>
+    <t>T. Eenhuistra/J. Pluimakers</t>
   </si>
   <si>
     <t>Franselaan 273B</t>
@@ -1490,10 +1502,10 @@
     <t>0019</t>
   </si>
   <si>
-    <t>FGM Solar Renewable S.R.L.</t>
-  </si>
-  <si>
-    <t>T. Eenhuistra/J. Pluimakers</t>
+    <t>FISSH B.V.</t>
+  </si>
+  <si>
+    <t>T. Hoolhorst</t>
   </si>
   <si>
     <t>Franz Liszstraat 5</t>
@@ -1502,10 +1514,7 @@
     <t>0067</t>
   </si>
   <si>
-    <t>FISSH B.V.</t>
-  </si>
-  <si>
-    <t>T. Hoolhorst</t>
+    <t>T. van de Moosdijk</t>
   </si>
   <si>
     <t>G.A. Brederolaan 75B</t>
@@ -1514,7 +1523,10 @@
     <t>0017</t>
   </si>
   <si>
-    <t>T. van de Moosdijk</t>
+    <t>Fam. Derwig</t>
+  </si>
+  <si>
+    <t>TH Mungroop</t>
   </si>
   <si>
     <t>Gaffelaar 3</t>
@@ -1523,10 +1535,10 @@
     <t>0069</t>
   </si>
   <si>
-    <t>Fam. Derwig</t>
-  </si>
-  <si>
-    <t>TH Mungroop</t>
+    <t>Fareon Z Nederland</t>
+  </si>
+  <si>
+    <t>Tradiro</t>
   </si>
   <si>
     <t>Galgeweg 48-A</t>
@@ -1535,10 +1547,10 @@
     <t>0009</t>
   </si>
   <si>
-    <t>Fareon Z Nederland</t>
-  </si>
-  <si>
-    <t>Tradiro</t>
+    <t>Fasttravel Taxi</t>
+  </si>
+  <si>
+    <t>Transformatiehaven BV</t>
   </si>
   <si>
     <t>Geldersestraat 91</t>
@@ -1547,10 +1559,10 @@
     <t>0109</t>
   </si>
   <si>
-    <t>Fasttravel Taxi</t>
-  </si>
-  <si>
-    <t>Transformatiehaven BV</t>
+    <t>Feel Flex B.V.</t>
+  </si>
+  <si>
+    <t>TwinsBV</t>
   </si>
   <si>
     <t>Geleenstraat 1</t>
@@ -1559,10 +1571,10 @@
     <t>0070</t>
   </si>
   <si>
-    <t>Feel Flex B.V.</t>
-  </si>
-  <si>
-    <t>TwinsBV</t>
+    <t>Finest Housing B.V.</t>
+  </si>
+  <si>
+    <t>Value+ Vastgoedmanagement</t>
   </si>
   <si>
     <t>Gerberalaan 113</t>
@@ -1571,10 +1583,10 @@
     <t>0277</t>
   </si>
   <si>
-    <t>Finest Housing B.V.</t>
-  </si>
-  <si>
-    <t>Value+ Vastgoedmanagement</t>
+    <t>Finishing De Luxe GmbH</t>
+  </si>
+  <si>
+    <t>Vattenfall</t>
   </si>
   <si>
     <t>Goudestein 30</t>
@@ -1583,10 +1595,10 @@
     <t>0170</t>
   </si>
   <si>
-    <t>Finishing De Luxe GmbH</t>
-  </si>
-  <si>
-    <t>Vattenfall</t>
+    <t>Fix Personeelsdiensten</t>
+  </si>
+  <si>
+    <t>Verknocht</t>
   </si>
   <si>
     <t>Groenelaan 30B</t>
@@ -1595,10 +1607,10 @@
     <t>0025</t>
   </si>
   <si>
-    <t>Fix Personeelsdiensten</t>
-  </si>
-  <si>
-    <t>Verknocht</t>
+    <t>Flex House Renting B.V.</t>
+  </si>
+  <si>
+    <t>Veurink</t>
   </si>
   <si>
     <t>Groeneweg 127</t>
@@ -1607,10 +1619,10 @@
     <t>0172</t>
   </si>
   <si>
-    <t>Flex House Renting B.V.</t>
-  </si>
-  <si>
-    <t>Veurink</t>
+    <t>Flex Pons B.V.</t>
+  </si>
+  <si>
+    <t>Vivir wonen (Mendy)</t>
   </si>
   <si>
     <t xml:space="preserve">Groeneweg 71 </t>
@@ -1619,10 +1631,10 @@
     <t>0173</t>
   </si>
   <si>
-    <t>Flex Pons B.V.</t>
-  </si>
-  <si>
-    <t>Vivir wonen (Mendy)</t>
+    <t>FlexState B.V.</t>
+  </si>
+  <si>
+    <t>Vondellaan vastgoed</t>
   </si>
   <si>
     <t>Groeneweg 74</t>
@@ -1631,10 +1643,10 @@
     <t>0174</t>
   </si>
   <si>
-    <t>FlexState B.V.</t>
-  </si>
-  <si>
-    <t>Vondellaan vastgoed</t>
+    <t>Flexbo B.V.</t>
+  </si>
+  <si>
+    <t>W. van Straalen</t>
   </si>
   <si>
     <t>H. Algraplein 25</t>
@@ -1643,10 +1655,10 @@
     <t>0071</t>
   </si>
   <si>
-    <t>Flexbo B.V.</t>
-  </si>
-  <si>
-    <t>W. van Straalen</t>
+    <t>Flexcraft SSC BV</t>
+  </si>
+  <si>
+    <t>Westhavendomein</t>
   </si>
   <si>
     <t>Haagkamp 11</t>
@@ -1655,10 +1667,10 @@
     <t>0279</t>
   </si>
   <si>
-    <t>Flexcraft SSC BV</t>
-  </si>
-  <si>
-    <t>Westhavendomein</t>
+    <t>Flextalent4u Uitzenden B.V.</t>
+  </si>
+  <si>
+    <t>Wooninq</t>
   </si>
   <si>
     <t>Hagastraat 8</t>
@@ -1667,10 +1679,10 @@
     <t>0175</t>
   </si>
   <si>
-    <t>Flextalent4u Uitzenden B.V.</t>
-  </si>
-  <si>
-    <t>Wooninq</t>
+    <t>Flexvesting B.V.</t>
+  </si>
+  <si>
+    <t>Z. Yilmaz</t>
   </si>
   <si>
     <t>Heemskerkstraat 19</t>
@@ -1679,10 +1691,10 @@
     <t>0072</t>
   </si>
   <si>
-    <t>Flexvesting B.V.</t>
-  </si>
-  <si>
-    <t>Z. Yilmaz</t>
+    <t>Flowerhill B.V.</t>
+  </si>
+  <si>
+    <t>Ziggo</t>
   </si>
   <si>
     <t>Hendrik Deddenstraat 26</t>
@@ -1691,10 +1703,7 @@
     <t>0073</t>
   </si>
   <si>
-    <t>Flowerhill B.V.</t>
-  </si>
-  <si>
-    <t>Ziggo</t>
+    <t>Focuzop-eu</t>
   </si>
   <si>
     <t>Hendriklaan 49</t>
@@ -1703,7 +1712,7 @@
     <t>0325</t>
   </si>
   <si>
-    <t>Focuzop-eu</t>
+    <t>Fryslân Homes</t>
   </si>
   <si>
     <t xml:space="preserve">Herautpad 22 </t>
@@ -1712,7 +1721,7 @@
     <t>0176</t>
   </si>
   <si>
-    <t>Fryslân Homes</t>
+    <t>Furniture Lease</t>
   </si>
   <si>
     <t>Herenpad 20 A</t>
@@ -1721,7 +1730,7 @@
     <t>0133</t>
   </si>
   <si>
-    <t>Furniture Lease</t>
+    <t>G.D. Dijkstra</t>
   </si>
   <si>
     <t>Herenpad 20 B</t>
@@ -1730,22 +1739,22 @@
     <t>0134</t>
   </si>
   <si>
-    <t>G.D. Dijkstra</t>
-  </si>
-  <si>
     <t>Hoefslag 8</t>
   </si>
   <si>
     <t>0107</t>
   </si>
   <si>
+    <t>GAP Costruzioni S.r.l.</t>
+  </si>
+  <si>
     <t>Hof van zeeland 2</t>
   </si>
   <si>
     <t>0334</t>
   </si>
   <si>
-    <t>GAP Costruzioni S.r.l.</t>
+    <t>GMC KOVI Global Metal Construction</t>
   </si>
   <si>
     <t>Hoge Noordweg 27B</t>
@@ -1754,7 +1763,7 @@
     <t>0177</t>
   </si>
   <si>
-    <t>GMC KOVI Global Metal Construction</t>
+    <t>GOTI Verhuur B.V.</t>
   </si>
   <si>
     <t>Hoge Noordweg 28</t>
@@ -1763,7 +1772,7 @@
     <t>0178</t>
   </si>
   <si>
-    <t>GOTI Verhuur B.V.</t>
+    <t>GSI B.V.</t>
   </si>
   <si>
     <t>Hogenbanweg 331</t>
@@ -1772,7 +1781,7 @@
     <t>0031</t>
   </si>
   <si>
-    <t>GSI B.V.</t>
+    <t>Gap Costruzioni Dutch Branch</t>
   </si>
   <si>
     <t>Hontenissestraat 124</t>
@@ -1781,7 +1790,7 @@
     <t>0181</t>
   </si>
   <si>
-    <t>Gap Costruzioni Dutch Branch</t>
+    <t>Gastvrijaanzee.nl</t>
   </si>
   <si>
     <t>Hoofdstraat 110</t>
@@ -1790,7 +1799,7 @@
     <t>0075</t>
   </si>
   <si>
-    <t>Gastvrijaanzee.nl</t>
+    <t>Gemeente Waadhoeke</t>
   </si>
   <si>
     <t>Hooizolder 6</t>
@@ -1799,7 +1808,7 @@
     <t>0078</t>
   </si>
   <si>
-    <t>Gemeente Waadhoeke</t>
+    <t>Global Accomodation Solutions (Incassobureau)</t>
   </si>
   <si>
     <t>Hugo de Grootstraat 72A &amp; B</t>
@@ -1808,7 +1817,7 @@
     <t>0147</t>
   </si>
   <si>
-    <t>Global Accomodation Solutions (Incassobureau)</t>
+    <t>Global Expatriate Services SL</t>
   </si>
   <si>
     <t xml:space="preserve">Hugo de Vriesstraat 54 </t>
@@ -1817,7 +1826,7 @@
     <t>0183</t>
   </si>
   <si>
-    <t>Global Expatriate Services SL</t>
+    <t>Gridin's Group LT</t>
   </si>
   <si>
     <t>Industriestraat 9</t>
@@ -1826,7 +1835,7 @@
     <t>0391</t>
   </si>
   <si>
-    <t>Gridin's Group LT</t>
+    <t>Groene Hart Service Detachering B.V.</t>
   </si>
   <si>
     <t>Inundatiestraat 3</t>
@@ -1835,7 +1844,7 @@
     <t>0039</t>
   </si>
   <si>
-    <t>Groene Hart Service Detachering B.V.</t>
+    <t>H. Molla Farajzadeh</t>
   </si>
   <si>
     <t>Jacob van Lennepstraat 13 A</t>
@@ -1844,7 +1853,7 @@
     <t>0187</t>
   </si>
   <si>
-    <t>H. Molla Farajzadeh</t>
+    <t>H. van den Berg</t>
   </si>
   <si>
     <t>Jacob van Lennepstraat 13 b</t>
@@ -1853,7 +1862,7 @@
     <t>0188</t>
   </si>
   <si>
-    <t>H. van den Berg</t>
+    <t>H.A. Samsom &amp; M.E.P. Knaap</t>
   </si>
   <si>
     <t>Jacob van Lennepstraat 34</t>
@@ -1862,7 +1871,7 @@
     <t>0189</t>
   </si>
   <si>
-    <t>H.A. Samsom &amp; M.E.P. Knaap</t>
+    <t>H.C. van Os - Remeeus</t>
   </si>
   <si>
     <t>Jacob van offwegenlaan 26</t>
@@ -1871,7 +1880,7 @@
     <t>0032</t>
   </si>
   <si>
-    <t>H.C. van Os - Remeeus</t>
+    <t>H.T.C. Facility Services B.V.</t>
   </si>
   <si>
     <t>Jan van Arkelstraat 118</t>
@@ -1880,7 +1889,7 @@
     <t>0191</t>
   </si>
   <si>
-    <t>H.T.C. Facility Services B.V.</t>
+    <t>HBBwonen.nu B.V.</t>
   </si>
   <si>
     <t>Jasmijnring 37</t>
@@ -1889,7 +1898,7 @@
     <t>0087</t>
   </si>
   <si>
-    <t>HBBwonen.nu B.V.</t>
+    <t>HJC Service</t>
   </si>
   <si>
     <t>Johan Willem Frisostraat 36</t>
@@ -1898,7 +1907,7 @@
     <t>0146</t>
   </si>
   <si>
-    <t>HJC Service</t>
+    <t>Habroko B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Kaapsebos 11 </t>
@@ -1907,7 +1916,7 @@
     <t>0192</t>
   </si>
   <si>
-    <t>Habroko B.V.</t>
+    <t>Head Vastgoed B.V.</t>
   </si>
   <si>
     <t>Kanaal van Steenenhoek Z.Z. 10</t>
@@ -1916,7 +1925,7 @@
     <t>0082</t>
   </si>
   <si>
-    <t>Head Vastgoed B.V.</t>
+    <t>Heijdra Dhr. H.M.</t>
   </si>
   <si>
     <t>Kapershoek 11</t>
@@ -1925,7 +1934,7 @@
     <t>0193</t>
   </si>
   <si>
-    <t>Heijdra Dhr. H.M.</t>
+    <t>Hiltermann Lease B.V.</t>
   </si>
   <si>
     <t>Karel Doormanlaan 21A</t>
@@ -1934,7 +1943,7 @@
     <t>0274</t>
   </si>
   <si>
-    <t>Hiltermann Lease B.V.</t>
+    <t>Hiway Operational Company B.V.</t>
   </si>
   <si>
     <t>Kastanjelaan 232</t>
@@ -1943,7 +1952,7 @@
     <t>0159</t>
   </si>
   <si>
-    <t>Hiway Operational Company B.V.</t>
+    <t>Holland Chalet Park</t>
   </si>
   <si>
     <t>Keesomstraat 22</t>
@@ -1952,7 +1961,7 @@
     <t>0194</t>
   </si>
   <si>
-    <t>Holland Chalet Park</t>
+    <t>Homekeur B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Keesomstraat 50 </t>
@@ -1961,7 +1970,7 @@
     <t>0195</t>
   </si>
   <si>
-    <t>Homekeur B.V.</t>
+    <t>Homescout21 B.V.</t>
   </si>
   <si>
     <t>Keesomstraat 54</t>
@@ -1970,7 +1979,7 @@
     <t>0196</t>
   </si>
   <si>
-    <t>Homescout21 B.V.</t>
+    <t>Horus Team Sp. Z.o.o.</t>
   </si>
   <si>
     <t>Kerkdreef 42</t>
@@ -1979,22 +1988,22 @@
     <t>0084</t>
   </si>
   <si>
-    <t>Horus Team Sp. Z.o.o.</t>
-  </si>
-  <si>
     <t>Kerkweg 9A [333]</t>
   </si>
   <si>
     <t>0312</t>
   </si>
   <si>
+    <t>Housing en Transport Facilities B.V.</t>
+  </si>
+  <si>
     <t>Kerkweg 9A [334]</t>
   </si>
   <si>
     <t>0313</t>
   </si>
   <si>
-    <t>Housing en Transport Facilities B.V.</t>
+    <t>Housing en Transport Facilities BV</t>
   </si>
   <si>
     <t>Kerkweg 9A [338]</t>
@@ -2003,7 +2012,7 @@
     <t>0314</t>
   </si>
   <si>
-    <t>Housing en Transport Facilities BV</t>
+    <t>HousingWell B.V.</t>
   </si>
   <si>
     <t>Kerkweg 9A [347]</t>
@@ -2012,7 +2021,7 @@
     <t>0317</t>
   </si>
   <si>
-    <t>HousingWell B.V.</t>
+    <t>Houvast Estates B.V.</t>
   </si>
   <si>
     <t>Kerkweg 9a [135]</t>
@@ -2021,7 +2030,7 @@
     <t>0308</t>
   </si>
   <si>
-    <t>Houvast Estates B.V.</t>
+    <t>Hugo Vastgoed B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Kerkweg 9a [137] </t>
@@ -2030,7 +2039,7 @@
     <t>0309</t>
   </si>
   <si>
-    <t>Hugo Vastgoed B.V.</t>
+    <t>I.I. Bhaggoe</t>
   </si>
   <si>
     <t>Kerkweg 9a [210]</t>
@@ -2039,7 +2048,7 @@
     <t>0310</t>
   </si>
   <si>
-    <t>I.I. Bhaggoe</t>
+    <t>I.T.S. SR.L. (INDUSTRIAL TECHNICAL SERVICES), BRAN</t>
   </si>
   <si>
     <t>Kerkweg 9a [269]</t>
@@ -2048,7 +2057,7 @@
     <t>0311</t>
   </si>
   <si>
-    <t>I.T.S. SR.L. (INDUSTRIAL TECHNICAL SERVICES), BRAN</t>
+    <t>IC Idea Complex Sp. Z.o.o.</t>
   </si>
   <si>
     <t>Kerkweg 9a [340]</t>
@@ -2057,7 +2066,7 @@
     <t>0332</t>
   </si>
   <si>
-    <t>IC Idea Complex Sp. Z.o.o.</t>
+    <t>ICS Impianti S.R.L.</t>
   </si>
   <si>
     <t>Kerkweg 9a [342]</t>
@@ -2066,7 +2075,7 @@
     <t>0315</t>
   </si>
   <si>
-    <t>ICS Impianti S.R.L.</t>
+    <t>IFC B.V.</t>
   </si>
   <si>
     <t>Kerkweg 9a [346]</t>
@@ -2075,7 +2084,7 @@
     <t>0316</t>
   </si>
   <si>
-    <t>IFC B.V.</t>
+    <t>IPS Industrial Plant Solutions Kft.</t>
   </si>
   <si>
     <t>Kerkweg 9a [348]</t>
@@ -2084,7 +2093,7 @@
     <t>0338</t>
   </si>
   <si>
-    <t>IPS Industrial Plant Solutions Kft.</t>
+    <t>Impes Service S.p.A.</t>
   </si>
   <si>
     <t>Kerkweg 9a [349]</t>
@@ -2093,7 +2102,7 @@
     <t>0318</t>
   </si>
   <si>
-    <t>Impes Service S.p.A.</t>
+    <t>Impianti Industriala S.P.A. NEDERLAND BRANCH</t>
   </si>
   <si>
     <t>Kerkweg 9a [356]</t>
@@ -2102,7 +2111,7 @@
     <t>0319</t>
   </si>
   <si>
-    <t>Impianti Industriala S.P.A. NEDERLAND BRANCH</t>
+    <t>In Stijl Totaalbouw BV</t>
   </si>
   <si>
     <t>Kerkweg 9a [357]</t>
@@ -2111,7 +2120,7 @@
     <t>0339</t>
   </si>
   <si>
-    <t>In Stijl Totaalbouw BV</t>
+    <t>InAxtion Vastgoed B.V.</t>
   </si>
   <si>
     <t>Kerkweg 9a [359]</t>
@@ -2120,7 +2129,7 @@
     <t>0320</t>
   </si>
   <si>
-    <t>InAxtion Vastgoed B.V.</t>
+    <t>Industrial Technical Services Srl</t>
   </si>
   <si>
     <t>Kerkweg 9a [453]</t>
@@ -2129,7 +2138,7 @@
     <t>0321</t>
   </si>
   <si>
-    <t>Industrial Technical Services Srl</t>
+    <t>Interim Jobs B.V.</t>
   </si>
   <si>
     <t>Kerkwerversingel 127</t>
@@ -2138,7 +2147,7 @@
     <t>0225</t>
   </si>
   <si>
-    <t>Interim Jobs B.V.</t>
+    <t>Interwel Oost B.V.</t>
   </si>
   <si>
     <t>Kerstendijk 125</t>
@@ -2147,7 +2156,7 @@
     <t>0199</t>
   </si>
   <si>
-    <t>Interwel Oost B.V.</t>
+    <t>I–Housing Vastgoed Beheer B.V.</t>
   </si>
   <si>
     <t>Kethelweg 1B</t>
@@ -2156,7 +2165,7 @@
     <t>0010</t>
   </si>
   <si>
-    <t>I–Housing Vastgoed Beheer B.V.</t>
+    <t>J. Hermans</t>
   </si>
   <si>
     <t>Kethelweg 1C</t>
@@ -2165,7 +2174,7 @@
     <t>0011</t>
   </si>
   <si>
-    <t>J. Hermans</t>
+    <t>J. Hogervorst</t>
   </si>
   <si>
     <t>Kethelweg 66 D</t>
@@ -2174,7 +2183,7 @@
     <t>0333</t>
   </si>
   <si>
-    <t>J. Hogervorst</t>
+    <t>J. J. van Veen</t>
   </si>
   <si>
     <t>Kethelweg 66A</t>
@@ -2183,7 +2192,7 @@
     <t>0088</t>
   </si>
   <si>
-    <t>J. J. van Veen</t>
+    <t>J. Kuipers</t>
   </si>
   <si>
     <t xml:space="preserve">Kethelweg 66B </t>
@@ -2192,7 +2201,7 @@
     <t>0122</t>
   </si>
   <si>
-    <t>J. Kuipers</t>
+    <t>J. Luijsterburg</t>
   </si>
   <si>
     <t>Kethelweg 66C</t>
@@ -2201,7 +2210,7 @@
     <t>0033</t>
   </si>
   <si>
-    <t>J. Luijsterburg</t>
+    <t>J. van Heeswijk</t>
   </si>
   <si>
     <t>Kethelweg 68A</t>
@@ -2210,7 +2219,7 @@
     <t>0034</t>
   </si>
   <si>
-    <t>J. van Heeswijk</t>
+    <t>J.D. Jongsma</t>
   </si>
   <si>
     <t>Kierkegaardhof 54</t>
@@ -2219,7 +2228,7 @@
     <t>0085</t>
   </si>
   <si>
-    <t>J.D. Jongsma</t>
+    <t>JC Kemp</t>
   </si>
   <si>
     <t>Kimbrenoord 15</t>
@@ -2228,7 +2237,7 @@
     <t>0202</t>
   </si>
   <si>
-    <t>JC Kemp</t>
+    <t>JES Funding &amp; Beheer B.V.</t>
   </si>
   <si>
     <t>Kimbrenoord 49</t>
@@ -2237,7 +2246,7 @@
     <t>0359</t>
   </si>
   <si>
-    <t>JES Funding &amp; Beheer B.V.</t>
+    <t>JJM Personeel B.V.</t>
   </si>
   <si>
     <t>Kleine Beer 60</t>
@@ -2246,7 +2255,7 @@
     <t>0086</t>
   </si>
   <si>
-    <t>JJM Personeel B.V.</t>
+    <t>JPJ Stoel</t>
   </si>
   <si>
     <t>Koningin Julianastraat 27</t>
@@ -2255,7 +2264,7 @@
     <t>0119</t>
   </si>
   <si>
-    <t>JPJ Stoel</t>
+    <t>JT Glazenwasserij en Schoonmaakdiensten</t>
   </si>
   <si>
     <t>Koperwerf 28</t>
@@ -2264,7 +2273,7 @@
     <t>0291</t>
   </si>
   <si>
-    <t>JT Glazenwasserij en Schoonmaakdiensten</t>
+    <t>Jacco Maat</t>
   </si>
   <si>
     <t>Korte Singelstraat 21-2</t>
@@ -2273,7 +2282,7 @@
     <t>0126</t>
   </si>
   <si>
-    <t>Jacco Maat</t>
+    <t>Jan Luijsterburg Beheer B.V.</t>
   </si>
   <si>
     <t>Korte Singelstraat 21-3</t>
@@ -2282,22 +2291,22 @@
     <t>0125</t>
   </si>
   <si>
-    <t>Jan Luijsterburg Beheer B.V.</t>
-  </si>
-  <si>
     <t>Krabbendijkestraat 456</t>
   </si>
   <si>
     <t>0198</t>
   </si>
   <si>
+    <t>Jong de SAW Dhr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kreekrug 1 </t>
   </si>
   <si>
     <t>0205</t>
   </si>
   <si>
-    <t>Jong de SAW Dhr</t>
+    <t>Joost de Jong Holding B.V.</t>
   </si>
   <si>
     <t>Kritostraat 54</t>
@@ -2306,7 +2315,7 @@
     <t>0389</t>
   </si>
   <si>
-    <t>Joost de Jong Holding B.V.</t>
+    <t>Joyce Bakker Advies</t>
   </si>
   <si>
     <t>Kruiningenstraat 152</t>
@@ -2315,7 +2324,7 @@
     <t>0206</t>
   </si>
   <si>
-    <t>Joyce Bakker Advies</t>
+    <t>K-Power Netherlands Kft</t>
   </si>
   <si>
     <t>Kruiningenstraat 185</t>
@@ -2324,7 +2333,7 @@
     <t>0360</t>
   </si>
   <si>
-    <t>K-Power Netherlands Kft</t>
+    <t>KODE Staffhousing B.V.</t>
   </si>
   <si>
     <t>Kruisweg 16</t>
@@ -2333,7 +2342,7 @@
     <t>0337</t>
   </si>
   <si>
-    <t>KODE Staffhousing B.V.</t>
+    <t>Kadaster</t>
   </si>
   <si>
     <t>Kuipers-Rietbergpad 15</t>
@@ -2342,7 +2351,7 @@
     <t>0157</t>
   </si>
   <si>
-    <t>Kadaster</t>
+    <t>Kajuit</t>
   </si>
   <si>
     <t xml:space="preserve">Kwekerslaan 7 </t>
@@ -2351,7 +2360,7 @@
     <t>0382</t>
   </si>
   <si>
-    <t>Kajuit</t>
+    <t>Kapitan Workers Sp. Z.o.o.</t>
   </si>
   <si>
     <t>Kwikstaartweg 45</t>
@@ -2360,7 +2369,7 @@
     <t>0207</t>
   </si>
   <si>
-    <t>Kapitan Workers Sp. Z.o.o.</t>
+    <t>Kapitein &amp; Personeel B.V</t>
   </si>
   <si>
     <t>Laan op Zuid 949</t>
@@ -2369,7 +2378,7 @@
     <t>0365</t>
   </si>
   <si>
-    <t>Kapitein &amp; Personeel B.V</t>
+    <t>Karadeniz Diensten</t>
   </si>
   <si>
     <t>Laan van Adrichem 12</t>
@@ -2378,7 +2387,7 @@
     <t>0209</t>
   </si>
   <si>
-    <t>Karadeniz Diensten</t>
+    <t>Key4work B.V.</t>
   </si>
   <si>
     <t>Laan van Nieuw Blankenburg 278</t>
@@ -2387,7 +2396,7 @@
     <t>0090</t>
   </si>
   <si>
-    <t>Key4work B.V.</t>
+    <t>Keypro B.V.</t>
   </si>
   <si>
     <t>Laan van Nieuw Blankenburg 328</t>
@@ -2396,7 +2405,7 @@
     <t>0185</t>
   </si>
   <si>
-    <t>Keypro B.V.</t>
+    <t>Kiose Yacht Finishing</t>
   </si>
   <si>
     <t>Landsteinerhof 68</t>
@@ -2405,7 +2414,7 @@
     <t>0091</t>
   </si>
   <si>
-    <t>Kiose Yacht Finishing</t>
+    <t>Klaas Bos</t>
   </si>
   <si>
     <t>Lange Brink 3</t>
@@ -2414,7 +2423,7 @@
     <t>0092</t>
   </si>
   <si>
-    <t>Klaas Bos</t>
+    <t>Kleijweg projects</t>
   </si>
   <si>
     <t>Lange Broekweg 46</t>
@@ -2423,7 +2432,7 @@
     <t>0278</t>
   </si>
   <si>
-    <t>Kleijweg projects</t>
+    <t>Koens T. Dhr.</t>
   </si>
   <si>
     <t>Lange kruisweg 12</t>
@@ -2432,7 +2441,7 @@
     <t>0028</t>
   </si>
   <si>
-    <t>Koens T. Dhr.</t>
+    <t>Kwekerij Stef Kleijweg</t>
   </si>
   <si>
     <t>Lavendelpad 6</t>
@@ -2441,7 +2450,7 @@
     <t>0385</t>
   </si>
   <si>
-    <t>Kwekerij Stef Kleijweg</t>
+    <t>L. Keizer</t>
   </si>
   <si>
     <t>Lekdijk 14</t>
@@ -2450,7 +2459,7 @@
     <t>0366</t>
   </si>
   <si>
-    <t>L. Keizer</t>
+    <t>L.M. Schilstra</t>
   </si>
   <si>
     <t>Liesveld 100</t>
@@ -2459,7 +2468,7 @@
     <t>0180</t>
   </si>
   <si>
-    <t>L.M. Schilstra</t>
+    <t>LZ Auto- en Motorservice B.V.</t>
   </si>
   <si>
     <t>Loggerstraat 3</t>
@@ -2468,7 +2477,7 @@
     <t>0096</t>
   </si>
   <si>
-    <t>LZ Auto- en Motorservice B.V.</t>
+    <t>Labour Housing BV</t>
   </si>
   <si>
     <t>Lorentzstraat 73</t>
@@ -2477,7 +2486,7 @@
     <t>0210</t>
   </si>
   <si>
-    <t>Labour Housing BV</t>
+    <t>Lago Personeelshuisvesting B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Maasdijk 206 </t>
@@ -2486,7 +2495,7 @@
     <t>0211</t>
   </si>
   <si>
-    <t>Lago Personeelshuisvesting B.V.</t>
+    <t>Langweer Vastgoed B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Maasdijk 69 </t>
@@ -2495,7 +2504,7 @@
     <t>0015</t>
   </si>
   <si>
-    <t>Langweer Vastgoed B.V.</t>
+    <t>Leen Bakker Nederland B.V.</t>
   </si>
   <si>
     <t>Madeliefstraat 46c</t>
@@ -2504,7 +2513,7 @@
     <t>0029</t>
   </si>
   <si>
-    <t>Leen Bakker Nederland B.V.</t>
+    <t>Level 5 Assetmanagement B.V.</t>
   </si>
   <si>
     <t>Madeweg 25C</t>
@@ -2513,7 +2522,7 @@
     <t>0282</t>
   </si>
   <si>
-    <t>Level 5 Assetmanagement B.V.</t>
+    <t>Lievaart B.V.</t>
   </si>
   <si>
     <t>Madeweg 35A</t>
@@ -2522,7 +2531,7 @@
     <t>0283</t>
   </si>
   <si>
-    <t>Lievaart B.V.</t>
+    <t>Light Personeelsdiensten</t>
   </si>
   <si>
     <t>Malzwin 34</t>
@@ -2531,7 +2540,7 @@
     <t>0182</t>
   </si>
   <si>
-    <t>Light Personeelsdiensten</t>
+    <t>Light Personeelsdiensten BV</t>
   </si>
   <si>
     <t>Marathonlaan 26</t>
@@ -2540,7 +2549,7 @@
     <t>0118</t>
   </si>
   <si>
-    <t>Light Personeelsdiensten BV</t>
+    <t>Lilit Home Makelaardij</t>
   </si>
   <si>
     <t xml:space="preserve">Markt 5 </t>
@@ -2549,7 +2558,7 @@
     <t>0057</t>
   </si>
   <si>
-    <t>Lilit Home Makelaardij</t>
+    <t>Lion Trading</t>
   </si>
   <si>
     <t>Marnixstraat 32</t>
@@ -2558,7 +2567,7 @@
     <t>0323</t>
   </si>
   <si>
-    <t>Lion Trading</t>
+    <t>LogIQ Barendrecht B.V.</t>
   </si>
   <si>
     <t>Mathenesserdijk 261-C03</t>
@@ -2567,7 +2576,7 @@
     <t>0184</t>
   </si>
   <si>
-    <t>LogIQ Barendrecht B.V.</t>
+    <t>Looije Facilities B.V.</t>
   </si>
   <si>
     <t>Meester G. Groen van Prinsterlaan 313</t>
@@ -2576,7 +2585,7 @@
     <t>0018</t>
   </si>
   <si>
-    <t>Looije Facilities B.V.</t>
+    <t>M van den Berg e/o H van den Berg</t>
   </si>
   <si>
     <t>Melis Stokezijde 94</t>
@@ -2585,22 +2594,22 @@
     <t>0098</t>
   </si>
   <si>
-    <t>M van den Berg e/o H van den Berg</t>
-  </si>
-  <si>
     <t>Mendelssohnplein 10C</t>
   </si>
   <si>
     <t>0215</t>
   </si>
   <si>
+    <t>M.A. Pronk</t>
+  </si>
+  <si>
     <t>Mendelssohnplein 13D</t>
   </si>
   <si>
     <t>0214</t>
   </si>
   <si>
-    <t>M.A. Pronk</t>
+    <t>M.C. Claassen</t>
   </si>
   <si>
     <t>Mendelssohnplein 46a</t>
@@ -2609,7 +2618,7 @@
     <t>0216</t>
   </si>
   <si>
-    <t>M.C. Claassen</t>
+    <t>M.J. van Os</t>
   </si>
   <si>
     <t>Messchaertplein 39</t>
@@ -2618,7 +2627,7 @@
     <t>0035</t>
   </si>
   <si>
-    <t>M.J. van Os</t>
+    <t>M@tchm@kers International B.V.</t>
   </si>
   <si>
     <t>Messchaertplein 40</t>
@@ -2627,13 +2636,13 @@
     <t>0036</t>
   </si>
   <si>
-    <t>M@tchm@kers International B.V.</t>
+    <t>MB Kewal</t>
   </si>
   <si>
     <t>0037</t>
   </si>
   <si>
-    <t>MB Kewal</t>
+    <t>MBS Services B.V.</t>
   </si>
   <si>
     <t>Middelrode 8</t>
@@ -2642,7 +2651,7 @@
     <t>0217</t>
   </si>
   <si>
-    <t>MBS Services B.V.</t>
+    <t>MC Mostert prive</t>
   </si>
   <si>
     <t>Middenbaan Noord 18A</t>
@@ -2651,7 +2660,7 @@
     <t>0251</t>
   </si>
   <si>
-    <t>MC Mostert prive</t>
+    <t>MDI Techniek B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Middenbaan Noord 18B </t>
@@ -2660,7 +2669,7 @@
     <t>0252</t>
   </si>
   <si>
-    <t>MDI Techniek B.V.</t>
+    <t>MK Contracting BV</t>
   </si>
   <si>
     <t>Middenbaan Noord 18C</t>
@@ -2669,7 +2678,7 @@
     <t>0253</t>
   </si>
   <si>
-    <t>MK Contracting BV</t>
+    <t>MNA Proud Facilities B.V.</t>
   </si>
   <si>
     <t>Middenbaan Noord 20A</t>
@@ -2678,7 +2687,7 @@
     <t>0254</t>
   </si>
   <si>
-    <t>MNA Proud Facilities B.V.</t>
+    <t>MPC Energy B.V.</t>
   </si>
   <si>
     <t>Middenbaan Noord 20B</t>
@@ -2687,7 +2696,7 @@
     <t>0255</t>
   </si>
   <si>
-    <t>MPC Energy B.V.</t>
+    <t>Maatschap J.W. Meershoek &amp; W.M. Meershoek</t>
   </si>
   <si>
     <t>Middenbaan Noord 20C</t>
@@ -2696,7 +2705,7 @@
     <t>0256</t>
   </si>
   <si>
-    <t>Maatschap J.W. Meershoek &amp; W.M. Meershoek</t>
+    <t>Maatschap Van Driel - Vd Vlist</t>
   </si>
   <si>
     <t>Middenbaan Noord 22A</t>
@@ -2705,7 +2714,7 @@
     <t>0257</t>
   </si>
   <si>
-    <t>Maatschap Van Driel - Vd Vlist</t>
+    <t>Marco is Vastgoed B.V.</t>
   </si>
   <si>
     <t>Middenbaan Noord 22B</t>
@@ -2714,7 +2723,7 @@
     <t>0258</t>
   </si>
   <si>
-    <t>Marco is Vastgoed B.V.</t>
+    <t>Marco van Beek B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Middenbaan Noord 22C </t>
@@ -2723,7 +2732,7 @@
     <t>0259</t>
   </si>
   <si>
-    <t>Marco van Beek B.V.</t>
+    <t>Maria</t>
   </si>
   <si>
     <t>Miltonstraat 55</t>
@@ -2732,7 +2741,7 @@
     <t>0219</t>
   </si>
   <si>
-    <t>Maria</t>
+    <t>Marseille Bax Van Maanen Rotterdamse account.</t>
   </si>
   <si>
     <t>Miltonstraat 85</t>
@@ -2741,7 +2750,7 @@
     <t>0220</t>
   </si>
   <si>
-    <t>Marseille Bax Van Maanen Rotterdamse account.</t>
+    <t>Mavi Vastgoed</t>
   </si>
   <si>
     <t>Molendijk 4</t>
@@ -2750,7 +2759,7 @@
     <t>0076</t>
   </si>
   <si>
-    <t>Mavi Vastgoed</t>
+    <t>Maytree Invest</t>
   </si>
   <si>
     <t>Molenstraat 10</t>
@@ -2759,7 +2768,7 @@
     <t>0221</t>
   </si>
   <si>
-    <t>Maytree Invest</t>
+    <t>Mediterranean Careers Netherlands B.V.</t>
   </si>
   <si>
     <t>Molenstraat 23</t>
@@ -2768,7 +2777,7 @@
     <t>0222</t>
   </si>
   <si>
-    <t>Mediterranean Careers Netherlands B.V.</t>
+    <t>Meerdervoort Queda Real B.V.</t>
   </si>
   <si>
     <t>Molenweg 135</t>
@@ -2777,7 +2786,7 @@
     <t>0100</t>
   </si>
   <si>
-    <t>Meerdervoort Queda Real B.V.</t>
+    <t>Milieu Service Brabant</t>
   </si>
   <si>
     <t>Molenweg 3A</t>
@@ -2786,7 +2795,7 @@
     <t>0284</t>
   </si>
   <si>
-    <t>Milieu Service Brabant</t>
+    <t>Mooswijk T.R. &amp; Plugers R.</t>
   </si>
   <si>
     <t>Molenweg 3B</t>
@@ -2795,7 +2804,7 @@
     <t>0335</t>
   </si>
   <si>
-    <t>Mooswijk T.R. &amp; Plugers R.</t>
+    <t>Multiservizi Romania SRL</t>
   </si>
   <si>
     <t>Monseigneur W.M. Bekkerslaan 34</t>
@@ -2804,7 +2813,7 @@
     <t>0074</t>
   </si>
   <si>
-    <t>Multiservizi Romania SRL</t>
+    <t>Multiserwis SP z o.o.</t>
   </si>
   <si>
     <t>Monsterseweg 26A</t>
@@ -2813,7 +2822,7 @@
     <t>0358</t>
   </si>
   <si>
-    <t>Multiserwis SP z o.o.</t>
+    <t>MvB Services</t>
   </si>
   <si>
     <t>Moureauveld 8</t>
@@ -2822,7 +2831,7 @@
     <t>0101</t>
   </si>
   <si>
-    <t>MvB Services</t>
+    <t>Mw. M. Hyllested Poulsen en Dhr. S. Crull</t>
   </si>
   <si>
     <t>Mr. L.A. Kesperweg 31A</t>
@@ -2831,7 +2840,7 @@
     <t>0208</t>
   </si>
   <si>
-    <t>Mw. M. Hyllested Poulsen en Dhr. S. Crull</t>
+    <t>N2people B.V.</t>
   </si>
   <si>
     <t>Mr. Troelstrastraat 11</t>
@@ -2840,7 +2849,7 @@
     <t>0213</t>
   </si>
   <si>
-    <t>N2people B.V.</t>
+    <t>NL Realty B.V.</t>
   </si>
   <si>
     <t>Mr. Troelstrastraat 37</t>
@@ -2849,7 +2858,7 @@
     <t>0020</t>
   </si>
   <si>
-    <t>NL Realty B.V.</t>
+    <t>Nerom Flex B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Narcissenstraat 23 </t>
@@ -2858,7 +2867,7 @@
     <t>0103</t>
   </si>
   <si>
-    <t>Nerom Flex B.V.</t>
+    <t>Nerom Industrial Flex B.V.</t>
   </si>
   <si>
     <t>Narcissenstraat 37</t>
@@ -2867,7 +2876,7 @@
     <t>0104</t>
   </si>
   <si>
-    <t>Nerom Industrial Flex B.V.</t>
+    <t>O.J.P Soc Construções</t>
   </si>
   <si>
     <t>Narcissenstraat 9</t>
@@ -2876,7 +2885,7 @@
     <t>0102</t>
   </si>
   <si>
-    <t>O.J.P Soc Construções</t>
+    <t>O.P.H. Verhuur B.V. / Eigenaar.nl</t>
   </si>
   <si>
     <t>Nicolaas Beetsstraat 29</t>
@@ -2885,7 +2894,7 @@
     <t>0224</t>
   </si>
   <si>
-    <t>O.P.H. Verhuur B.V. / Eigenaar.nl</t>
+    <t>O.Vasiutina</t>
   </si>
   <si>
     <t>Nieuwe Zeedijk 1K 308</t>
@@ -2894,7 +2903,7 @@
     <t>0108</t>
   </si>
   <si>
-    <t>O.Vasiutina</t>
+    <t>OGSS BV</t>
   </si>
   <si>
     <t>Nieuwenhoornstraat 46B</t>
@@ -2903,7 +2912,7 @@
     <t>0046</t>
   </si>
   <si>
-    <t>OGSS BV</t>
+    <t>OJP B.V.</t>
   </si>
   <si>
     <t>Nieuwkerstraat 78</t>
@@ -2912,7 +2921,7 @@
     <t>0166</t>
   </si>
   <si>
-    <t>OJP B.V.</t>
+    <t>Odido Netherlands</t>
   </si>
   <si>
     <t>Noordmolenstraat 36a</t>
@@ -2921,7 +2930,7 @@
     <t>0328</t>
   </si>
   <si>
-    <t>Odido Netherlands</t>
+    <t>Oostkracht Bemiddeling B.V.</t>
   </si>
   <si>
     <t>Noordmolenstraat 36b</t>
@@ -2930,7 +2939,7 @@
     <t>0329</t>
   </si>
   <si>
-    <t>Oostkracht Bemiddeling B.V.</t>
+    <t>Optima Uitzendbureau B.V.</t>
   </si>
   <si>
     <t>Noordmolenstraat 36c</t>
@@ -2939,22 +2948,22 @@
     <t>0330</t>
   </si>
   <si>
-    <t>Optima Uitzendbureau B.V.</t>
-  </si>
-  <si>
     <t>Nunspeetlaan 14</t>
   </si>
   <si>
     <t>0001</t>
   </si>
   <si>
+    <t>Orange Investments Group B.V.</t>
+  </si>
+  <si>
     <t>Nunspeetlaan 53</t>
   </si>
   <si>
     <t>0041</t>
   </si>
   <si>
-    <t>Orange Investments Group B.V.</t>
+    <t>Oranjegroep Vastgoed B.V.</t>
   </si>
   <si>
     <t>Ofwegen 1A</t>
@@ -2963,7 +2972,7 @@
     <t>0336</t>
   </si>
   <si>
-    <t>Oranjegroep Vastgoed B.V.</t>
+    <t>Oxrooms</t>
   </si>
   <si>
     <t>Oosterstraat 89</t>
@@ -2972,7 +2981,7 @@
     <t>0111</t>
   </si>
   <si>
-    <t>Oxrooms</t>
+    <t>P. Gryspeerdt</t>
   </si>
   <si>
     <t xml:space="preserve">Oostlaan 3 </t>
@@ -2981,22 +2990,22 @@
     <t>0227</t>
   </si>
   <si>
-    <t>P. Gryspeerdt</t>
-  </si>
-  <si>
     <t>Opaal 9</t>
   </si>
   <si>
     <t>0110</t>
   </si>
   <si>
+    <t>P. Ter Haar-Ros</t>
+  </si>
+  <si>
     <t>Oranjestraat 63</t>
   </si>
   <si>
     <t>0369</t>
   </si>
   <si>
-    <t>P. Ter Haar-Ros</t>
+    <t>PMM Workforce Management Ltd</t>
   </si>
   <si>
     <t>Oudewefslaan 84</t>
@@ -3005,7 +3014,7 @@
     <t>0112</t>
   </si>
   <si>
-    <t>PMM Workforce Management Ltd</t>
+    <t>PRP Solutions Flex Sp. Z.O.O</t>
   </si>
   <si>
     <t>P.F. Catsstraat 8</t>
@@ -3014,22 +3023,22 @@
     <t>0218</t>
   </si>
   <si>
-    <t>PRP Solutions Flex Sp. Z.O.O</t>
-  </si>
-  <si>
     <t>Parallelweg 110A</t>
   </si>
   <si>
     <t>0042</t>
   </si>
   <si>
+    <t>People21 Services BV</t>
+  </si>
+  <si>
     <t>Parallelweg 114C</t>
   </si>
   <si>
     <t>0380</t>
   </si>
   <si>
-    <t>People21 Services BV</t>
+    <t>PersoneelDirectFriesland</t>
   </si>
   <si>
     <t xml:space="preserve">Parallelweg 122A </t>
@@ -3038,7 +3047,7 @@
     <t>0228</t>
   </si>
   <si>
-    <t>PersoneelDirectFriesland</t>
+    <t>Plural Albufeira S.R.L.</t>
   </si>
   <si>
     <t>Parallelweg 134B</t>
@@ -3047,7 +3056,7 @@
     <t>0381</t>
   </si>
   <si>
-    <t>Plural Albufeira S.R.L.</t>
+    <t>Pol Flex B.V.</t>
   </si>
   <si>
     <t>Parallelweg 98B</t>
@@ -3056,7 +3065,7 @@
     <t>0229</t>
   </si>
   <si>
-    <t>Pol Flex B.V.</t>
+    <t>Profectus Staffing Solutions</t>
   </si>
   <si>
     <t>Pasteursingel 61B</t>
@@ -3065,7 +3074,7 @@
     <t>0230</t>
   </si>
   <si>
-    <t>Profectus Staffing Solutions</t>
+    <t>Quality Home Rentals</t>
   </si>
   <si>
     <t>Pastoor Gillisstraat 81-A</t>
@@ -3074,7 +3083,7 @@
     <t>0344</t>
   </si>
   <si>
-    <t>Quality Home Rentals</t>
+    <t>R&amp;E Services</t>
   </si>
   <si>
     <t>Pastoriedijk 89</t>
@@ -3083,7 +3092,7 @@
     <t>0083</t>
   </si>
   <si>
-    <t>R&amp;E Services</t>
+    <t>R. Bassil</t>
   </si>
   <si>
     <t>Patrijsstraat 39</t>
@@ -3092,7 +3101,7 @@
     <t>0081</t>
   </si>
   <si>
-    <t>R. Bassil</t>
+    <t>RNDV Industries</t>
   </si>
   <si>
     <t>Persoonsdam 176</t>
@@ -3101,7 +3110,7 @@
     <t>0260</t>
   </si>
   <si>
-    <t>RNDV Industries</t>
+    <t>RNVD Industries</t>
   </si>
   <si>
     <t>Persoonsdam 177</t>
@@ -3110,7 +3119,7 @@
     <t>0261</t>
   </si>
   <si>
-    <t>RNVD Industries</t>
+    <t>Randstad Wonen</t>
   </si>
   <si>
     <t>Persoonsdam 178</t>
@@ -3119,7 +3128,7 @@
     <t>0262</t>
   </si>
   <si>
-    <t>Randstad Wonen</t>
+    <t>Ras R.A. Dhr.</t>
   </si>
   <si>
     <t>Persoonsdam 179</t>
@@ -3128,7 +3137,7 @@
     <t>0263</t>
   </si>
   <si>
-    <t>Ras R.A. Dhr.</t>
+    <t>Reham Verhuur B.V.</t>
   </si>
   <si>
     <t>Persoonsdam 180</t>
@@ -3137,7 +3146,7 @@
     <t>0264</t>
   </si>
   <si>
-    <t>Reham Verhuur B.V.</t>
+    <t>Resource One B.V.</t>
   </si>
   <si>
     <t>Persoonsdam 181</t>
@@ -3146,7 +3155,7 @@
     <t>0265</t>
   </si>
   <si>
-    <t>Resource One B.V.</t>
+    <t>Robert L.P. de Jonge</t>
   </si>
   <si>
     <t>Persoonsdam 182</t>
@@ -3155,7 +3164,7 @@
     <t>0266</t>
   </si>
   <si>
-    <t>Robert L.P. de Jonge</t>
+    <t>Royal DS Personeel-service</t>
   </si>
   <si>
     <t>Persoonsdam 194</t>
@@ -3164,22 +3173,22 @@
     <t>0267</t>
   </si>
   <si>
-    <t>Royal DS Personeel-service</t>
-  </si>
-  <si>
     <t>Persoonsdam 196</t>
   </si>
   <si>
     <t>0349</t>
   </si>
   <si>
+    <t>RyanRent B.V.</t>
+  </si>
+  <si>
     <t>Persoonsdam 198</t>
   </si>
   <si>
     <t>0268</t>
   </si>
   <si>
-    <t>RyanRent B.V.</t>
+    <t>S Kleijweg</t>
   </si>
   <si>
     <t>Peursumseweg 119A</t>
@@ -3188,7 +3197,7 @@
     <t>0113</t>
   </si>
   <si>
-    <t>S Kleijweg</t>
+    <t>S. Bakker OPH Verhuur</t>
   </si>
   <si>
     <t>Piersonstraat 8</t>
@@ -3197,7 +3206,7 @@
     <t>0114</t>
   </si>
   <si>
-    <t>S. Bakker OPH Verhuur</t>
+    <t>S. Dolstra</t>
   </si>
   <si>
     <t>Plaats 10</t>
@@ -3206,22 +3215,22 @@
     <t>0120</t>
   </si>
   <si>
-    <t>S. Dolstra</t>
-  </si>
-  <si>
     <t>Platostraat 80</t>
   </si>
   <si>
     <t>0231</t>
   </si>
   <si>
+    <t>S. Marinus (zie 50200)</t>
+  </si>
+  <si>
     <t>Pleinweg 101 A</t>
   </si>
   <si>
     <t>0044</t>
   </si>
   <si>
-    <t>S. Marinus (zie 50200)</t>
+    <t>S. Meijer</t>
   </si>
   <si>
     <t>Pleinweg 101 B</t>
@@ -3230,7 +3239,7 @@
     <t>0045</t>
   </si>
   <si>
-    <t>S. Meijer</t>
+    <t>SHGJ Ribbink</t>
   </si>
   <si>
     <t>Ploegstraat 2a</t>
@@ -3239,7 +3248,7 @@
     <t>0079</t>
   </si>
   <si>
-    <t>SHGJ Ribbink</t>
+    <t>SS Kara Yacht Painters LLP</t>
   </si>
   <si>
     <t>Poeldijkseweg 27</t>
@@ -3248,7 +3257,7 @@
     <t>0285</t>
   </si>
   <si>
-    <t>SS Kara Yacht Painters LLP</t>
+    <t>STANA d.o.o.</t>
   </si>
   <si>
     <t>Poeldijkseweg 29</t>
@@ -3257,7 +3266,7 @@
     <t>0378</t>
   </si>
   <si>
-    <t>STANA d.o.o.</t>
+    <t>Sagius Uitzenders B.V.</t>
   </si>
   <si>
     <t>Poolsestraat 29A</t>
@@ -3266,7 +3275,7 @@
     <t>0386</t>
   </si>
   <si>
-    <t>Sagius Uitzenders B.V.</t>
+    <t>Showtuin Nederland B.V.</t>
   </si>
   <si>
     <t>Poppestraat 59</t>
@@ -3275,7 +3284,7 @@
     <t>0115</t>
   </si>
   <si>
-    <t>Showtuin Nederland B.V.</t>
+    <t>Shtan Vitaliy</t>
   </si>
   <si>
     <t>Prins Bernhardstraat 40</t>
@@ -3284,7 +3293,7 @@
     <t>0116</t>
   </si>
   <si>
-    <t>Shtan Vitaliy</t>
+    <t>Soul inn B.B B.V</t>
   </si>
   <si>
     <t>Prins Willemweg 2</t>
@@ -3293,7 +3302,7 @@
     <t>0287</t>
   </si>
   <si>
-    <t>Soul inn B.B B.V</t>
+    <t>Space4U B.V.</t>
   </si>
   <si>
     <t>Prinses Wilhelminastraat 9</t>
@@ -3302,7 +3311,7 @@
     <t>0106</t>
   </si>
   <si>
-    <t>Space4U B.V.</t>
+    <t>St. Zakelijke Beh.rek. Dijkstra Vastgoedbeh.</t>
   </si>
   <si>
     <t>Professor Kamerlingh Onneslaan 134 A</t>
@@ -3311,7 +3320,7 @@
     <t>0269</t>
   </si>
   <si>
-    <t>St. Zakelijke Beh.rek. Dijkstra Vastgoedbeh.</t>
+    <t>Stay21</t>
   </si>
   <si>
     <t>Professor Kamerlingh Onneslaan 134 B1</t>
@@ -3320,7 +3329,7 @@
     <t>0270</t>
   </si>
   <si>
-    <t>Stay21</t>
+    <t>StayProjects Group Netherlands B.V.</t>
   </si>
   <si>
     <t>Professor Kamerlingh Onneslaan 134 B2</t>
@@ -3329,7 +3338,7 @@
     <t>0271</t>
   </si>
   <si>
-    <t>StayProjects Group Netherlands B.V.</t>
+    <t>Stichting Bewaring PRMD</t>
   </si>
   <si>
     <t>Professor Kamerlingh Onneslaan 134 B3</t>
@@ -3338,7 +3347,7 @@
     <t>0272</t>
   </si>
   <si>
-    <t>Stichting Bewaring PRMD</t>
+    <t>Suricare B.V.</t>
   </si>
   <si>
     <t>Professor Poelslaan 58C</t>
@@ -3347,9 +3356,6 @@
     <t>0340</t>
   </si>
   <si>
-    <t>Suricare B.V.</t>
-  </si>
-  <si>
     <t>Prunuslaan 36</t>
   </si>
   <si>
@@ -3362,13 +3368,16 @@
     <t>0204</t>
   </si>
   <si>
+    <t>T.A. Middelkoop</t>
+  </si>
+  <si>
     <t>Putsebocht 136 B01</t>
   </si>
   <si>
     <t>0361</t>
   </si>
   <si>
-    <t>T.A. Middelkoop</t>
+    <t>T.A. van der Burg</t>
   </si>
   <si>
     <t>Putter 42</t>
@@ -3377,7 +3386,7 @@
     <t>0327</t>
   </si>
   <si>
-    <t>T.A. van der Burg</t>
+    <t>THS EU B.V.</t>
   </si>
   <si>
     <t>Rembrandtstraat 20B</t>
@@ -3386,7 +3395,7 @@
     <t>0233</t>
   </si>
   <si>
-    <t>THS EU B.V.</t>
+    <t>TNM Vastgoed B.V.</t>
   </si>
   <si>
     <t>Rietdijkstraat 56A</t>
@@ -3395,7 +3404,7 @@
     <t>0363</t>
   </si>
   <si>
-    <t>TNM Vastgoed B.V.</t>
+    <t>TOTAL Nederland N.V.</t>
   </si>
   <si>
     <t>Rietdijkstraat 56B</t>
@@ -3404,7 +3413,7 @@
     <t>0364</t>
   </si>
   <si>
-    <t>TOTAL Nederland N.V.</t>
+    <t>Team Home Rentals B.V.</t>
   </si>
   <si>
     <t>Rijpstraat 24</t>
@@ -3413,7 +3422,7 @@
     <t>0377</t>
   </si>
   <si>
-    <t>Team Home Rentals B.V.</t>
+    <t>Team Technical Services BV</t>
   </si>
   <si>
     <t>Ringbaan Oost 327</t>
@@ -3422,7 +3431,7 @@
     <t>0005</t>
   </si>
   <si>
-    <t>Team Technical Services BV</t>
+    <t>Team Unica B.V.</t>
   </si>
   <si>
     <t>Rivierdijk 793</t>
@@ -3431,7 +3440,7 @@
     <t>0226</t>
   </si>
   <si>
-    <t>Team Unica B.V.</t>
+    <t>TecFlex B.V.</t>
   </si>
   <si>
     <t>Rivierdijk 794</t>
@@ -3440,7 +3449,7 @@
     <t>0121</t>
   </si>
   <si>
-    <t>TecFlex B.V.</t>
+    <t>Techvisie Personeelsdiensten Centraal B.V.</t>
   </si>
   <si>
     <t>Roerdompstraat 4B</t>
@@ -3449,7 +3458,7 @@
     <t>0390</t>
   </si>
   <si>
-    <t>Techvisie Personeelsdiensten Centraal B.V.</t>
+    <t>Tempsteel B.V.</t>
   </si>
   <si>
     <t>Rooseveltlaan 185</t>
@@ -3458,7 +3467,7 @@
     <t>0179</t>
   </si>
   <si>
-    <t>Tempsteel B.V.</t>
+    <t>The Housing Guild B.V.</t>
   </si>
   <si>
     <t>Rotterdamsedijk 154B</t>
@@ -3467,7 +3476,7 @@
     <t>0234</t>
   </si>
   <si>
-    <t>The Housing Guild B.V.</t>
+    <t>Thuisvesting B.V.</t>
   </si>
   <si>
     <t>Rubensplein 3 B</t>
@@ -3476,7 +3485,7 @@
     <t>0235</t>
   </si>
   <si>
-    <t>Thuisvesting B.V.</t>
+    <t>Timing Uitzendteam BV</t>
   </si>
   <si>
     <t>Rubensplein 6B3</t>
@@ -3485,7 +3494,7 @@
     <t>0154</t>
   </si>
   <si>
-    <t>Timing Uitzendteam BV</t>
+    <t>Tradiro Services B.V.</t>
   </si>
   <si>
     <t>Ruigenhoek 69</t>
@@ -3494,7 +3503,7 @@
     <t>0362</t>
   </si>
   <si>
-    <t>Tradiro Services B.V.</t>
+    <t>Transport People B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Schalkeroord 389 </t>
@@ -3503,7 +3512,7 @@
     <t>0236</t>
   </si>
   <si>
-    <t>Transport People B.V.</t>
+    <t>Twins BV</t>
   </si>
   <si>
     <t>Scheepjesbrug 433</t>
@@ -3512,7 +3521,7 @@
     <t>0144</t>
   </si>
   <si>
-    <t>Twins BV</t>
+    <t>UAB Baltic Contracting Group</t>
   </si>
   <si>
     <t>Scheepjesbrug 814</t>
@@ -3521,7 +3530,7 @@
     <t>0197</t>
   </si>
   <si>
-    <t>UAB Baltic Contracting Group</t>
+    <t>UAB Techsome</t>
   </si>
   <si>
     <t>Schere 238</t>
@@ -3530,7 +3539,7 @@
     <t>0237</t>
   </si>
   <si>
-    <t>UAB Techsome</t>
+    <t>UAB Toromega</t>
   </si>
   <si>
     <t>Schoonegge 110</t>
@@ -3539,22 +3548,22 @@
     <t>0239</t>
   </si>
   <si>
-    <t>UAB Toromega</t>
-  </si>
-  <si>
     <t>Schoonegge 84</t>
   </si>
   <si>
     <t>0240</t>
   </si>
   <si>
+    <t>UAB „Laivsta“/ JSC „Laivsta“, Part of Litana Group</t>
+  </si>
+  <si>
     <t>Sint Josephstraat 61</t>
   </si>
   <si>
     <t>0050</t>
   </si>
   <si>
-    <t>UAB „Laivsta“/ JSC „Laivsta“, Part of Litana Group</t>
+    <t>Uitzendbureau Bakker B.V.</t>
   </si>
   <si>
     <t>Sint Liduinastraat 76 A</t>
@@ -3563,7 +3572,7 @@
     <t>0242</t>
   </si>
   <si>
-    <t>Uitzendbureau Bakker B.V.</t>
+    <t>Uitzendwerk B.V.</t>
   </si>
   <si>
     <t>Sint Liduinastraat 80A</t>
@@ -3572,7 +3581,7 @@
     <t>0243</t>
   </si>
   <si>
-    <t>Uitzendwerk B.V.</t>
+    <t>United Homes B.V.</t>
   </si>
   <si>
     <t>Sint Liduinastraat 80B</t>
@@ -3581,7 +3590,7 @@
     <t>0244</t>
   </si>
   <si>
-    <t>United Homes B.V.</t>
+    <t>United Homes Inhouse B.V.</t>
   </si>
   <si>
     <t>Sint-Annalandstraat 116</t>
@@ -3590,7 +3599,7 @@
     <t>0164</t>
   </si>
   <si>
-    <t>United Homes Inhouse B.V.</t>
+    <t>V.B.A. Beheer B.V.</t>
   </si>
   <si>
     <t>Snecanusstraat 12</t>
@@ -3599,7 +3608,7 @@
     <t>0123</t>
   </si>
   <si>
-    <t>V.B.A. Beheer B.V.</t>
+    <t>V.O.F. Groepsaccommodaties Drenthe</t>
   </si>
   <si>
     <t>Snoekenveen 242</t>
@@ -3608,7 +3617,7 @@
     <t>0124</t>
   </si>
   <si>
-    <t>V.O.F. Groepsaccommodaties Drenthe</t>
+    <t>VALO Facilities B.V.</t>
   </si>
   <si>
     <t>Socratesstraat 168</t>
@@ -3617,22 +3626,22 @@
     <t>0246</t>
   </si>
   <si>
-    <t>VALO Facilities B.V.</t>
-  </si>
-  <si>
     <t>Spoorsingel 154b</t>
   </si>
   <si>
     <t>0247</t>
   </si>
   <si>
+    <t>Vaktec B.V.</t>
+  </si>
+  <si>
     <t>Stal 355</t>
   </si>
   <si>
     <t>0200</t>
   </si>
   <si>
-    <t>Vaktec B.V.</t>
+    <t>Vaktec BV</t>
   </si>
   <si>
     <t>Steenen Dijck 87</t>
@@ -3641,7 +3650,7 @@
     <t>0099</t>
   </si>
   <si>
-    <t>Vaktec BV</t>
+    <t>Valkenet Vastgoed B.V.</t>
   </si>
   <si>
     <t>Struitenweg 19b</t>
@@ -3650,7 +3659,7 @@
     <t>0127</t>
   </si>
   <si>
-    <t>Valkenet Vastgoed B.V.</t>
+    <t>Van Bergen Personeelsdiensten B.V.</t>
   </si>
   <si>
     <t>Tesselschadelaan 45</t>
@@ -3659,7 +3668,7 @@
     <t>0128</t>
   </si>
   <si>
-    <t>Van Bergen Personeelsdiensten B.V.</t>
+    <t>Van Mossel Rotterdam</t>
   </si>
   <si>
     <t>Tholenstraat 114</t>
@@ -3668,7 +3677,7 @@
     <t>0249</t>
   </si>
   <si>
-    <t>Van Mossel Rotterdam</t>
+    <t>Van der Wal Bedrijfshuisvesting B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Utrechtse straatweg 7 </t>
@@ -3677,7 +3686,7 @@
     <t>0129</t>
   </si>
   <si>
-    <t>Van der Wal Bedrijfshuisvesting B.V.</t>
+    <t>Vast-PS Housing</t>
   </si>
   <si>
     <t>Vaartweg 106C</t>
@@ -3686,7 +3695,7 @@
     <t>0021</t>
   </si>
   <si>
-    <t>Vast-PS Housing</t>
+    <t>Vastgoed Spijkenisse</t>
   </si>
   <si>
     <t>Van Hoofsweg 4</t>
@@ -3695,7 +3704,7 @@
     <t>0355</t>
   </si>
   <si>
-    <t>Vastgoed Spijkenisse</t>
+    <t>Verhuur en onderhoudsbedrijf Hilaard</t>
   </si>
   <si>
     <t>Van Langedonckstraat 80</t>
@@ -3704,7 +3713,7 @@
     <t>0130</t>
   </si>
   <si>
-    <t>Verhuur en onderhoudsbedrijf Hilaard</t>
+    <t>Verkeersschool Nobel</t>
   </si>
   <si>
     <t>Van Maanenstraat 14A</t>
@@ -3713,7 +3722,7 @@
     <t>0089</t>
   </si>
   <si>
-    <t>Verkeersschool Nobel</t>
+    <t>Verlangen Finance BV</t>
   </si>
   <si>
     <t>Van Ruijsdaellaan 72 A</t>
@@ -3722,7 +3731,7 @@
     <t>0347</t>
   </si>
   <si>
-    <t>Verlangen Finance BV</t>
+    <t>Vivir Wonen</t>
   </si>
   <si>
     <t>Van Ruijsdaellaan 72 B</t>
@@ -3731,7 +3740,7 @@
     <t>0351</t>
   </si>
   <si>
-    <t>Vivir Wonen</t>
+    <t>Vleesbewerking van der Pijl B.V.</t>
   </si>
   <si>
     <t>Van Ruijsdaellaan 72 C</t>
@@ -3740,7 +3749,7 @@
     <t>0352</t>
   </si>
   <si>
-    <t>Vleesbewerking van der Pijl B.V.</t>
+    <t>Vlot Vastgoed B.V.</t>
   </si>
   <si>
     <t>Van Swinderenstraat 21</t>
@@ -3749,7 +3758,7 @@
     <t>0324</t>
   </si>
   <si>
-    <t>Vlot Vastgoed B.V.</t>
+    <t>Vondellaan Vastgoed Beheer B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Van der Werffstraat 370 </t>
@@ -3758,7 +3767,7 @@
     <t>0238</t>
   </si>
   <si>
-    <t>Vondellaan Vastgoed Beheer B.V.</t>
+    <t>W.T. Bosgraaf en E. Stam</t>
   </si>
   <si>
     <t>Venkelstraat 29A</t>
@@ -3767,7 +3776,7 @@
     <t>0137</t>
   </si>
   <si>
-    <t>W.T. Bosgraaf en E. Stam</t>
+    <t>WIL International B.V.</t>
   </si>
   <si>
     <t xml:space="preserve">Verschansing 21 </t>
@@ -3776,7 +3785,7 @@
     <t>0387</t>
   </si>
   <si>
-    <t>WIL International B.V.</t>
+    <t>WILL Vakkrachten B. V.</t>
   </si>
   <si>
     <t>Vierambachtsstraat 32-B01</t>
@@ -3785,7 +3794,7 @@
     <t>0374</t>
   </si>
   <si>
-    <t>WILL Vakkrachten B. V.</t>
+    <t>WS Detachering BV</t>
   </si>
   <si>
     <t>Visartstraat 31</t>
@@ -3794,7 +3803,7 @@
     <t>0158</t>
   </si>
   <si>
-    <t>WS Detachering BV</t>
+    <t>Welcome Housing B.V.</t>
   </si>
   <si>
     <t>Voeghoutenstraat 236</t>
@@ -3803,7 +3812,7 @@
     <t>0132</t>
   </si>
   <si>
-    <t>Welcome Housing B.V.</t>
+    <t>Werckpost Service B.V.</t>
   </si>
   <si>
     <t>Vogelschorstraat 24</t>
@@ -3812,7 +3821,7 @@
     <t>0167</t>
   </si>
   <si>
-    <t>Werckpost Service B.V.</t>
+    <t>Workforce Housing Holland B.V.</t>
   </si>
   <si>
     <t>Voorstraat 10</t>
@@ -3821,7 +3830,7 @@
     <t>0077</t>
   </si>
   <si>
-    <t>Workforce Housing Holland B.V.</t>
+    <t>Workforce Housing International B.V</t>
   </si>
   <si>
     <t>Voorstraat 25</t>
@@ -3830,7 +3839,7 @@
     <t>0080</t>
   </si>
   <si>
-    <t>Workforce Housing International B.V</t>
+    <t>Works Personeelsdiensten</t>
   </si>
   <si>
     <t>Waellandweg 12</t>
@@ -3839,7 +3848,7 @@
     <t>0286</t>
   </si>
   <si>
-    <t>Works Personeelsdiensten</t>
+    <t>Y. K. Bos</t>
   </si>
   <si>
     <t>Wagenstraat 70</t>
@@ -3848,7 +3857,7 @@
     <t>0348</t>
   </si>
   <si>
-    <t>Y. K. Bos</t>
+    <t>YaY</t>
   </si>
   <si>
     <t>Wedderweg 3</t>
@@ -3857,7 +3866,7 @@
     <t>0368</t>
   </si>
   <si>
-    <t>YaY</t>
+    <t>Z Yilmaz</t>
   </si>
   <si>
     <t>Westercluft 134</t>
@@ -3866,7 +3875,7 @@
     <t>0138</t>
   </si>
   <si>
-    <t>Z Yilmaz</t>
+    <t>ZaMens R.I.A. B.V.</t>
   </si>
   <si>
     <t>Westfrankelandsestraat 108</t>
@@ -3875,7 +3884,7 @@
     <t>0038</t>
   </si>
   <si>
-    <t>ZaMens R.I.A. B.V.</t>
+    <t>Zeeland Housing Facility B.V.</t>
   </si>
   <si>
     <t>Wieldraaierstraat 39</t>
@@ -3884,7 +3893,7 @@
     <t>0105</t>
   </si>
   <si>
-    <t>Zeeland Housing Facility B.V.</t>
+    <t>dockHolland Huisvesting B.V.</t>
   </si>
   <si>
     <t>Wijdstraat 13</t>
@@ -3893,7 +3902,7 @@
     <t>0171</t>
   </si>
   <si>
-    <t>dockHolland Huisvesting B.V.</t>
+    <t>house of work</t>
   </si>
   <si>
     <t>Wijngaard 66</t>
@@ -3902,7 +3911,7 @@
     <t>0212</t>
   </si>
   <si>
-    <t>house of work</t>
+    <t>van Heeswijk</t>
   </si>
   <si>
     <t xml:space="preserve">Wilgensingel 63 </t>
@@ -3911,9 +3920,6 @@
     <t>0139</t>
   </si>
   <si>
-    <t>van Heeswijk</t>
-  </si>
-  <si>
     <t>Wilgenstraat 37</t>
   </si>
   <si>
@@ -4020,9 +4026,6 @@
   </si>
   <si>
     <t>Basis</t>
-  </si>
-  <si>
-    <t>vattenfall</t>
   </si>
   <si>
     <t>Levering</t>
@@ -4192,7 +4195,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE7E6E6"/>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE7E6E6"/>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5520,18 +5539,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D54">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>B4="MISSING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>B4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E54">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>E4="✅ READY"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>E4="⚠️ INCOMPLETE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5543,9 +5562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP25" sqref="AP25"/>
+      <selection pane="bottomLeft" activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5557,15 +5576,7 @@
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="20" width="15" customWidth="1"/>
     <col min="21" max="21" width="30" customWidth="1"/>
-    <col min="22" max="27" width="15" customWidth="1"/>
-    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="15" customWidth="1"/>
+    <col min="22" max="36" width="15" customWidth="1"/>
     <col min="37" max="37" width="30" customWidth="1"/>
     <col min="38" max="43" width="15" customWidth="1"/>
   </cols>
@@ -5703,10 +5714,10 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B2" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C2" t="s">
         <v>277</v>
@@ -5723,7 +5734,7 @@
       <c r="G2" s="8"/>
       <c r="J2" s="9">
         <f>IF(A2="","",IFERROR(VLOOKUP(A2,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L2" s="9">
         <f>IF(A2="","",IFERROR(VLOOKUP(A2,Lists!$A:$H,7,FALSE),0))</f>
@@ -5737,7 +5748,7 @@
         <v>363</v>
       </c>
       <c r="O2" s="11">
-        <f t="shared" ref="O2:O33" si="1">IF(K2="Eigen Beheer",0,IF(AND(ISNUMBER(N2),I2&lt;&gt;"",H2&lt;&gt;""),(N2/30)*(I2-H2),0))</f>
+        <f t="shared" ref="O2:O33" si="1">IF(K2="Eigen Beheer",0,IF(AND(ISNUMBER(N2),I2&lt;&gt;"",H2&lt;&gt;""),YEARFRAC(H2,I2,4)*12*N2,0))</f>
         <v>0</v>
       </c>
       <c r="R2" s="12" t="str">
@@ -5795,10 +5806,10 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B3" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C3" t="s">
         <v>277</v>
@@ -5815,7 +5826,7 @@
       <c r="G3" s="8"/>
       <c r="J3" s="9">
         <f>IF(A3="","",IFERROR(VLOOKUP(A3,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L3" s="9">
         <f>IF(A3="","",IFERROR(VLOOKUP(A3,Lists!$A:$H,7,FALSE),0))</f>
@@ -5857,7 +5868,7 @@
         <v>m³</v>
       </c>
       <c r="AK3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AL3">
         <v>185</v>
@@ -5883,10 +5894,10 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B4" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C4" t="s">
         <v>277</v>
@@ -5903,7 +5914,7 @@
       <c r="G4" s="8"/>
       <c r="J4" s="9">
         <f>IF(A4="","",IFERROR(VLOOKUP(A4,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L4" s="9">
         <f>IF(A4="","",IFERROR(VLOOKUP(A4,Lists!$A:$H,7,FALSE),0))</f>
@@ -5941,10 +5952,10 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AK4" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AL4">
         <v>579</v>
@@ -5970,10 +5981,10 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B5" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C5" t="s">
         <v>277</v>
@@ -5990,7 +6001,7 @@
       <c r="G5" s="8"/>
       <c r="J5" s="9">
         <f>IF(A5="","",IFERROR(VLOOKUP(A5,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L5" s="9">
         <f>IF(A5="","",IFERROR(VLOOKUP(A5,Lists!$A:$H,7,FALSE),0))</f>
@@ -6032,7 +6043,7 @@
         <v>m³</v>
       </c>
       <c r="AK5" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AL5">
         <v>185</v>
@@ -6058,10 +6069,10 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B6" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C6" t="s">
         <v>277</v>
@@ -6078,7 +6089,7 @@
       <c r="G6" s="8"/>
       <c r="J6" s="9">
         <f>IF(A6="","",IFERROR(VLOOKUP(A6,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L6" s="9">
         <f>IF(A6="","",IFERROR(VLOOKUP(A6,Lists!$A:$H,7,FALSE),0))</f>
@@ -6120,7 +6131,7 @@
         <v>m³</v>
       </c>
       <c r="AK6" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AL6">
         <v>185</v>
@@ -6146,10 +6157,10 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B7" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C7" t="s">
         <v>277</v>
@@ -6166,7 +6177,7 @@
       <c r="G7" s="8"/>
       <c r="J7" s="9">
         <f>IF(A7="","",IFERROR(VLOOKUP(A7,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L7" s="9">
         <f>IF(A7="","",IFERROR(VLOOKUP(A7,Lists!$A:$H,7,FALSE),0))</f>
@@ -6208,7 +6219,7 @@
         <v>kWh</v>
       </c>
       <c r="AK7" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="AL7">
         <v>3308</v>
@@ -6234,10 +6245,10 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B8" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C8" t="s">
         <v>277</v>
@@ -6254,7 +6265,7 @@
       <c r="G8" s="8"/>
       <c r="J8" s="9">
         <f>IF(A8="","",IFERROR(VLOOKUP(A8,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L8" s="9">
         <f>IF(A8="","",IFERROR(VLOOKUP(A8,Lists!$A:$H,7,FALSE),0))</f>
@@ -6292,10 +6303,10 @@
         <v>58</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AK8" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AL8">
         <v>579</v>
@@ -6321,10 +6332,10 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B9" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C9" t="s">
         <v>277</v>
@@ -6341,7 +6352,7 @@
       <c r="G9" s="8"/>
       <c r="J9" s="9">
         <f>IF(A9="","",IFERROR(VLOOKUP(A9,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L9" s="9">
         <f>IF(A9="","",IFERROR(VLOOKUP(A9,Lists!$A:$H,7,FALSE),0))</f>
@@ -6379,10 +6390,10 @@
         <v>58</v>
       </c>
       <c r="AJ9" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AK9" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="AL9">
         <v>579</v>
@@ -6408,10 +6419,10 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B10" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C10" t="s">
         <v>277</v>
@@ -6428,7 +6439,7 @@
       <c r="G10" s="8"/>
       <c r="J10" s="9">
         <f>IF(A10="","",IFERROR(VLOOKUP(A10,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L10" s="9">
         <f>IF(A10="","",IFERROR(VLOOKUP(A10,Lists!$A:$H,7,FALSE),0))</f>
@@ -6466,10 +6477,10 @@
         <v>58</v>
       </c>
       <c r="AJ10" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AK10" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="AL10">
         <v>579</v>
@@ -6495,10 +6506,10 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B11" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C11" t="s">
         <v>277</v>
@@ -6515,7 +6526,7 @@
       <c r="G11" s="8"/>
       <c r="J11" s="9">
         <f>IF(A11="","",IFERROR(VLOOKUP(A11,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L11" s="9">
         <f>IF(A11="","",IFERROR(VLOOKUP(A11,Lists!$A:$H,7,FALSE),0))</f>
@@ -6557,7 +6568,7 @@
         <v>m³</v>
       </c>
       <c r="AK11" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="AL11">
         <v>3406</v>
@@ -6583,10 +6594,10 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B12" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C12" t="s">
         <v>277</v>
@@ -6603,7 +6614,7 @@
       <c r="G12" s="8"/>
       <c r="J12" s="9">
         <f>IF(A12="","",IFERROR(VLOOKUP(A12,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L12" s="9">
         <f>IF(A12="","",IFERROR(VLOOKUP(A12,Lists!$A:$H,7,FALSE),0))</f>
@@ -6641,10 +6652,10 @@
         <v>66</v>
       </c>
       <c r="AJ12" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AK12" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="AL12">
         <v>579</v>
@@ -6670,10 +6681,10 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C13" t="s">
         <v>277</v>
@@ -6690,7 +6701,7 @@
       <c r="G13" s="8"/>
       <c r="J13" s="9">
         <f>IF(A13="","",IFERROR(VLOOKUP(A13,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L13" s="9">
         <f>IF(A13="","",IFERROR(VLOOKUP(A13,Lists!$A:$H,7,FALSE),0))</f>
@@ -6728,10 +6739,10 @@
         <v>66</v>
       </c>
       <c r="AJ13" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AK13" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AL13">
         <v>579</v>
@@ -6757,10 +6768,10 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B14" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C14" t="s">
         <v>277</v>
@@ -6777,7 +6788,7 @@
       <c r="G14" s="8"/>
       <c r="J14" s="9">
         <f>IF(A14="","",IFERROR(VLOOKUP(A14,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="L14" s="9">
         <f>IF(A14="","",IFERROR(VLOOKUP(A14,Lists!$A:$H,7,FALSE),0))</f>
@@ -6842,10 +6853,10 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B15" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C15" t="s">
         <v>277</v>
@@ -6868,7 +6879,7 @@
       </c>
       <c r="J15" s="9">
         <f>IF(A15="","",IFERROR(VLOOKUP(A15,Lists!$A:$H,8,FALSE),0))</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
@@ -6886,13 +6897,13 @@
       </c>
       <c r="O15" s="11">
         <f t="shared" si="1"/>
-        <v>7005.9</v>
+        <v>6897</v>
       </c>
       <c r="P15" t="s">
         <v>71</v>
       </c>
       <c r="Q15" t="s">
-        <v>1328</v>
+        <v>516</v>
       </c>
       <c r="R15" s="12">
         <f>IF(Q15="","",VLOOKUP(Q15,Lists!$E:$F,2,FALSE))</f>
@@ -8126,7 +8137,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" ref="O34:O65" si="12">IF(K34="Eigen Beheer",0,IF(AND(ISNUMBER(N34),I34&lt;&gt;"",H34&lt;&gt;""),(N34/30)*(I34-H34),0))</f>
+        <f t="shared" ref="O34:O65" si="12">IF(K34="Eigen Beheer",0,IF(AND(ISNUMBER(N34),I34&lt;&gt;"",H34&lt;&gt;""),YEARFRAC(H34,I34,4)*12*N34,0))</f>
         <v>0</v>
       </c>
       <c r="R34" s="12" t="str">
@@ -10206,7 +10217,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" ref="O66:O97" si="21">IF(K66="Eigen Beheer",0,IF(AND(ISNUMBER(N66),I66&lt;&gt;"",H66&lt;&gt;""),(N66/30)*(I66-H66),0))</f>
+        <f t="shared" ref="O66:O97" si="21">IF(K66="Eigen Beheer",0,IF(AND(ISNUMBER(N66),I66&lt;&gt;"",H66&lt;&gt;""),YEARFRAC(H66,I66,4)*12*N66,0))</f>
         <v>0</v>
       </c>
       <c r="R66" s="12" t="str">
@@ -12286,7 +12297,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O98" s="11">
-        <f t="shared" ref="O98:O129" si="30">IF(K98="Eigen Beheer",0,IF(AND(ISNUMBER(N98),I98&lt;&gt;"",H98&lt;&gt;""),(N98/30)*(I98-H98),0))</f>
+        <f t="shared" ref="O98:O129" si="30">IF(K98="Eigen Beheer",0,IF(AND(ISNUMBER(N98),I98&lt;&gt;"",H98&lt;&gt;""),YEARFRAC(H98,I98,4)*12*N98,0))</f>
         <v>0</v>
       </c>
       <c r="R98" s="12" t="str">
@@ -14366,7 +14377,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O130" s="11">
-        <f t="shared" ref="O130:O161" si="39">IF(K130="Eigen Beheer",0,IF(AND(ISNUMBER(N130),I130&lt;&gt;"",H130&lt;&gt;""),(N130/30)*(I130-H130),0))</f>
+        <f t="shared" ref="O130:O161" si="39">IF(K130="Eigen Beheer",0,IF(AND(ISNUMBER(N130),I130&lt;&gt;"",H130&lt;&gt;""),YEARFRAC(H130,I130,4)*12*N130,0))</f>
         <v>0</v>
       </c>
       <c r="R130" s="12" t="str">
@@ -16446,7 +16457,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O162" s="11">
-        <f t="shared" ref="O162:O193" si="48">IF(K162="Eigen Beheer",0,IF(AND(ISNUMBER(N162),I162&lt;&gt;"",H162&lt;&gt;""),(N162/30)*(I162-H162),0))</f>
+        <f t="shared" ref="O162:O193" si="48">IF(K162="Eigen Beheer",0,IF(AND(ISNUMBER(N162),I162&lt;&gt;"",H162&lt;&gt;""),YEARFRAC(H162,I162,4)*12*N162,0))</f>
         <v>0</v>
       </c>
       <c r="R162" s="12" t="str">
@@ -18526,7 +18537,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O194" s="11">
-        <f t="shared" ref="O194:O225" si="57">IF(K194="Eigen Beheer",0,IF(AND(ISNUMBER(N194),I194&lt;&gt;"",H194&lt;&gt;""),(N194/30)*(I194-H194),0))</f>
+        <f t="shared" ref="O194:O225" si="57">IF(K194="Eigen Beheer",0,IF(AND(ISNUMBER(N194),I194&lt;&gt;"",H194&lt;&gt;""),YEARFRAC(H194,I194,4)*12*N194,0))</f>
         <v>0</v>
       </c>
       <c r="R194" s="12" t="str">
@@ -19021,36 +19032,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:U14 D16:U5000 D15:G15 J15:U15">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$B2&lt;&gt;"Basis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:AA5000">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;"GWE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AH5000">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="AB2:AH13 AB15:AH5000 AE14:AH14">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>$B2&lt;&gt;"Schoonmaak"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AQ2 AI14:AQ5000 AN3:AQ13">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="AI2:AQ2 AI14:AQ5000 AN3:AN13 AP3:AQ13">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>AND($B2&lt;&gt;"Schade",$B2&lt;&gt;"Extra",$B2&lt;&gt;"GWE_Item")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:I15">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$B15&lt;&gt;"Basis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AA2">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$B2&lt;&gt;"GWE"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB14:AD14">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>$B14&lt;&gt;"Schoonmaak"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AM13">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND($B3&lt;&gt;"Schade",$B3&lt;&gt;"Extra",$B3&lt;&gt;"GWE_Item")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3:AO13">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND($B3&lt;&gt;"Schade",$B3&lt;&gt;"Extra",$B3&lt;&gt;"GWE_Item")</formula>
     </cfRule>
@@ -19059,7 +19080,7 @@
     <dataValidation type="list" sqref="B2:B5000" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Basis,GWE,GWE_Item,Schoonmaak,Schade,Extra"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AI3:AI13" xr:uid="{207BC9D1-2B85-6E49-8E6F-21AF1D8BA0F2}">
+    <dataValidation type="list" allowBlank="1" sqref="AI3:AI13" xr:uid="{8746E3BC-6A7E-A843-9936-1405D31D8BE3}">
       <formula1>"Elektra,Gas,Water,Overig"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19101,7 +19122,7 @@
           <x14:formula1>
             <xm:f>Lists!$M$2:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AB2:AB5000</xm:sqref>
+          <xm:sqref>AB2:AB13 AB15:AB5000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
@@ -19117,9 +19138,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O392"/>
+  <dimension ref="A1:O393"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="H327" sqref="H327"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -20838,7 +20861,7 @@
         <v>4</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -20919,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>2909.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -20945,7 +20968,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>2165.2600000000002</v>
+        <v>2909.6</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -20971,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1763.53</v>
+        <v>2165.2600000000002</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -20997,7 +21020,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>2850</v>
+        <v>1763.53</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -21023,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>2143.5300000000002</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -21049,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2509.41</v>
+        <v>2143.5300000000002</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -21075,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2509.41</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -21101,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1552.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -21124,10 +21147,10 @@
         <v>72</v>
       </c>
       <c r="G75">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>4850</v>
+        <v>1552.29</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -21150,10 +21173,10 @@
         <v>68</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H76">
-        <v>2498.54</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -21179,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>2054.12</v>
+        <v>2498.54</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -21202,10 +21225,10 @@
         <v>105</v>
       </c>
       <c r="G78">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1700</v>
+        <v>2054.12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -21228,10 +21251,10 @@
         <v>104</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H79">
-        <v>2841.93</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -21257,7 +21280,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>3608.79</v>
+        <v>2841.93</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -21283,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1580</v>
+        <v>3608.79</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -21309,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1648.24</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -21335,7 +21358,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>2157.65</v>
+        <v>1648.24</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -21361,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2157.65</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -21387,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1768.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -21413,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>3789.24</v>
+        <v>1768.24</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -21439,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>2018.82</v>
+        <v>3789.24</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -21465,7 +21488,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>2510.59</v>
+        <v>2018.82</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -21491,7 +21514,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2750</v>
+        <v>2510.59</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -21514,10 +21537,10 @@
         <v>124</v>
       </c>
       <c r="G90">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>3300</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -21540,10 +21563,10 @@
         <v>110</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -21566,10 +21589,10 @@
         <v>119</v>
       </c>
       <c r="G92">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>6140.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -21592,10 +21615,10 @@
         <v>67</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H93">
-        <v>1734.98</v>
+        <v>6140.29</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -21618,10 +21641,10 @@
         <v>62</v>
       </c>
       <c r="G94">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1734.98</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -21644,10 +21667,10 @@
         <v>17</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H95">
-        <v>6140.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -21673,7 +21696,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>2446.35</v>
+        <v>6140.29</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -21699,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>4755.4399999999996</v>
+        <v>2446.35</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -21725,7 +21748,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1723.44</v>
+        <v>4755.4399999999996</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -21751,7 +21774,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1993.32</v>
+        <v>1723.44</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -21777,7 +21800,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>2253.77</v>
+        <v>1993.32</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -21803,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>2192.94</v>
+        <v>2253.77</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -21826,10 +21849,10 @@
         <v>116</v>
       </c>
       <c r="G102">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2446.35</v>
+        <v>2192.94</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -21852,10 +21875,10 @@
         <v>79</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H103">
-        <v>2253.77</v>
+        <v>2446.35</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -21881,7 +21904,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>2602.5</v>
+        <v>2253.77</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -21907,7 +21930,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>3426.56</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -21933,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>3426.56</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -21956,10 +21979,10 @@
         <v>75</v>
       </c>
       <c r="G107">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>2450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -21982,10 +22005,10 @@
         <v>39</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H108">
-        <v>2052.94</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -22011,7 +22034,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>3643.5</v>
+        <v>2052.94</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -22037,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>1702.35</v>
+        <v>3643.5</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -22063,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>4575</v>
+        <v>1702.35</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -22089,7 +22112,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>2058.8200000000002</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -22112,10 +22135,10 @@
         <v>77</v>
       </c>
       <c r="G113">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>4372.2</v>
+        <v>2058.8200000000002</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -22138,10 +22161,10 @@
         <v>22</v>
       </c>
       <c r="G114">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H114">
-        <v>3239.85</v>
+        <v>4372.2</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -22164,10 +22187,10 @@
         <v>42</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3239.85</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -22190,10 +22213,10 @@
         <v>2</v>
       </c>
       <c r="G116">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -22216,10 +22239,10 @@
         <v>12</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H117">
-        <v>2165.88</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -22245,7 +22268,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>2186.1</v>
+        <v>2165.88</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -22271,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>2169.06</v>
+        <v>2186.1</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -22297,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1750</v>
+        <v>2169.06</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -22320,10 +22343,10 @@
         <v>27</v>
       </c>
       <c r="G121">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>2575</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -22346,10 +22369,10 @@
         <v>117</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -22375,7 +22398,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -22398,10 +22421,10 @@
         <v>60</v>
       </c>
       <c r="G124">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>2250</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -22424,10 +22447,10 @@
         <v>3</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -22444,10 +22467,10 @@
         <v>50448</v>
       </c>
       <c r="G126">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>5500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -22464,10 +22487,10 @@
         <v>84</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H127">
-        <v>1750</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -22487,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>3409.28</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -22507,7 +22530,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>2363.0700000000002</v>
+        <v>3409.28</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -22524,10 +22547,10 @@
         <v>100125</v>
       </c>
       <c r="G130">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>2446.35</v>
+        <v>2363.0700000000002</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -22544,10 +22567,10 @@
         <v>100262</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2446.35</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -22567,7 +22590,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1829.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -22587,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1829.53</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -22607,7 +22630,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1974.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -22624,10 +22647,10 @@
         <v>50394</v>
       </c>
       <c r="G135">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>2240.44</v>
+        <v>1974.12</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -22644,10 +22667,10 @@
         <v>50439</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H136">
-        <v>2342.25</v>
+        <v>2240.44</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -22664,10 +22687,10 @@
         <v>50252</v>
       </c>
       <c r="G137">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>2602.5</v>
+        <v>2342.25</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -22684,10 +22707,10 @@
         <v>30</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H138">
-        <v>1977.9</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -22707,7 +22730,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>2082</v>
+        <v>1977.9</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -22727,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -22744,10 +22767,10 @@
         <v>22</v>
       </c>
       <c r="G141">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>2315.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -22764,10 +22787,10 @@
         <v>50176</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H142">
-        <v>1503.32</v>
+        <v>2315.29</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -22827,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>2065.88</v>
+        <v>1503.32</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -22847,7 +22870,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>2255</v>
+        <v>2065.88</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -22864,10 +22887,10 @@
         <v>45</v>
       </c>
       <c r="G147">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -22884,7 +22907,7 @@
         <v>76</v>
       </c>
       <c r="G148">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -22904,10 +22927,10 @@
         <v>50213</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H149">
-        <v>2255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -22924,10 +22947,10 @@
         <v>50396</v>
       </c>
       <c r="G150">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>2575</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -22944,10 +22967,10 @@
         <v>50305</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H151">
-        <v>2255</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -22967,7 +22990,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -22984,10 +23007,10 @@
         <v>50288</v>
       </c>
       <c r="G153">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -23004,10 +23027,10 @@
         <v>100108</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H154">
-        <v>1503.32</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -23027,7 +23050,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>2300</v>
+        <v>1503.32</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -23047,7 +23070,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>2255</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -23067,7 +23090,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>2250</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -23084,10 +23107,10 @@
         <v>50415</v>
       </c>
       <c r="G158">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>1683.53</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -23107,7 +23130,7 @@
         <v>300</v>
       </c>
       <c r="H159">
-        <v>2422.35</v>
+        <v>1683.53</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -23127,7 +23150,7 @@
         <v>300</v>
       </c>
       <c r="H160">
-        <v>2284.71</v>
+        <v>2422.35</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -23147,7 +23170,7 @@
         <v>300</v>
       </c>
       <c r="H161">
-        <v>1855.29</v>
+        <v>2284.71</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -23164,10 +23187,10 @@
         <v>50304</v>
       </c>
       <c r="G162">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H162">
-        <v>1642.35</v>
+        <v>1855.29</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -23187,7 +23210,7 @@
         <v>200</v>
       </c>
       <c r="H163">
-        <v>1978.82</v>
+        <v>1642.35</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -23204,10 +23227,10 @@
         <v>55</v>
       </c>
       <c r="G164">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H164">
-        <v>1772.94</v>
+        <v>1978.82</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -23227,7 +23250,7 @@
         <v>250</v>
       </c>
       <c r="H165">
-        <v>1795.29</v>
+        <v>1772.94</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -23244,10 +23267,10 @@
         <v>50173</v>
       </c>
       <c r="G166">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H166">
-        <v>1735.29</v>
+        <v>1795.29</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -23267,7 +23290,7 @@
         <v>350</v>
       </c>
       <c r="H167">
-        <v>1884.71</v>
+        <v>1735.29</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -23284,10 +23307,10 @@
         <v>50160</v>
       </c>
       <c r="G168">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H168">
-        <v>2196.4699999999998</v>
+        <v>1884.71</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -23304,10 +23327,10 @@
         <v>100136</v>
       </c>
       <c r="G169">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H169">
-        <v>2283.5300000000002</v>
+        <v>2196.4699999999998</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -23327,7 +23350,7 @@
         <v>400</v>
       </c>
       <c r="H170">
-        <v>2028.24</v>
+        <v>2283.5300000000002</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -23344,10 +23367,10 @@
         <v>50329</v>
       </c>
       <c r="G171">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H171">
-        <v>2361.1799999999998</v>
+        <v>2028.24</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -23364,10 +23387,10 @@
         <v>50467</v>
       </c>
       <c r="G172">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H172">
-        <v>1818.82</v>
+        <v>2361.1799999999998</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -23384,10 +23407,10 @@
         <v>50198</v>
       </c>
       <c r="G173">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H173">
-        <v>1902.35</v>
+        <v>1818.82</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -23404,10 +23427,10 @@
         <v>96</v>
       </c>
       <c r="G174">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H174">
-        <v>2516.4699999999998</v>
+        <v>1902.35</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -23424,10 +23447,10 @@
         <v>35</v>
       </c>
       <c r="G175">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H175">
-        <v>4164</v>
+        <v>2516.4699999999998</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -23444,10 +23467,10 @@
         <v>50152</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H176">
-        <v>2841.93</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -23467,7 +23490,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>2444.71</v>
+        <v>2841.93</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -23487,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>1769.41</v>
+        <v>2444.71</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -23507,7 +23530,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1769.41</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -23527,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>2593.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -23567,7 +23590,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>2444.71</v>
+        <v>2593.81</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -23587,7 +23610,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>2108.6999999999998</v>
+        <v>2444.71</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -23604,10 +23627,10 @@
         <v>41</v>
       </c>
       <c r="G184">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>2400</v>
+        <v>2108.6999999999998</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -23624,10 +23647,10 @@
         <v>100088</v>
       </c>
       <c r="G185">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H185">
-        <v>2650</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -23644,10 +23667,10 @@
         <v>100095</v>
       </c>
       <c r="G186">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H186">
-        <v>2250</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -23664,10 +23687,10 @@
         <v>100101</v>
       </c>
       <c r="G187">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="H187">
-        <v>4000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -23684,10 +23707,10 @@
         <v>50420</v>
       </c>
       <c r="G188">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="H188">
-        <v>3775</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -23704,10 +23727,10 @@
         <v>100248</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -23724,10 +23747,10 @@
         <v>100106</v>
       </c>
       <c r="G190">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>2363.0700000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -23744,10 +23767,10 @@
         <v>50163</v>
       </c>
       <c r="G191">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H191">
-        <v>1610.06</v>
+        <v>2363.0700000000002</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -23764,10 +23787,10 @@
         <v>50449</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H192">
-        <v>1867.66</v>
+        <v>1610.06</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -23787,7 +23810,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1867.66</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -23807,7 +23830,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>2350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -23824,10 +23847,10 @@
         <v>50210</v>
       </c>
       <c r="G195">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>2400</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -23847,7 +23870,7 @@
         <v>250</v>
       </c>
       <c r="H196">
-        <v>2500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -23864,10 +23887,10 @@
         <v>50279</v>
       </c>
       <c r="G197">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="H197">
-        <v>4750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -23884,10 +23907,10 @@
         <v>50039</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H198">
-        <v>2737.83</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -23904,10 +23927,10 @@
         <v>100247</v>
       </c>
       <c r="G199">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2737.83</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -23924,10 +23947,10 @@
         <v>100244</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H200">
-        <v>1436.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -23944,10 +23967,10 @@
         <v>100239</v>
       </c>
       <c r="G201">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1436.58</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -23964,10 +23987,10 @@
         <v>50349</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H202">
-        <v>1436.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -23984,10 +24007,10 @@
         <v>100201</v>
       </c>
       <c r="G203">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>2855.46</v>
+        <v>1436.58</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -24007,7 +24030,7 @@
         <v>200</v>
       </c>
       <c r="H204">
-        <v>2853.27</v>
+        <v>2855.46</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -24024,10 +24047,10 @@
         <v>50</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H205">
-        <v>2914.8</v>
+        <v>2853.27</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -24047,7 +24070,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>3643.5</v>
+        <v>2914.8</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -24067,7 +24090,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>3643.5</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -24087,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>1954.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -24107,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1954.12</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -24167,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>2375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -24187,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>2750</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -24207,7 +24230,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>2300</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -24227,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>1934.12</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -24244,10 +24267,10 @@
         <v>50307</v>
       </c>
       <c r="G216">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>1877.65</v>
+        <v>1934.12</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -24264,10 +24287,10 @@
         <v>50148</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1877.65</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -24307,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>2082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -24324,10 +24347,10 @@
         <v>100155</v>
       </c>
       <c r="G220">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>3300</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -24344,10 +24367,10 @@
         <v>100169</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H221">
-        <v>4033.88</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -24364,10 +24387,10 @@
         <v>50217</v>
       </c>
       <c r="G222">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>2550</v>
+        <v>4033.88</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -24384,10 +24407,10 @@
         <v>100221</v>
       </c>
       <c r="G223">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H223">
-        <v>3600</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -24407,7 +24430,7 @@
         <v>200</v>
       </c>
       <c r="H224">
-        <v>1861.18</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -24427,7 +24450,7 @@
         <v>200</v>
       </c>
       <c r="H225">
-        <v>3250</v>
+        <v>1861.18</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -24444,10 +24467,10 @@
         <v>65</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H226">
-        <v>5710.93</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -24467,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>2350</v>
+        <v>5710.93</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -24487,7 +24510,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>2053.7399999999998</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -24507,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>2160</v>
+        <v>2053.7399999999998</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -24527,18 +24550,18 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>2149.41</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B231" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C231" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D231">
         <v>100170</v>
@@ -24547,12 +24570,12 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>1937.65</v>
+        <v>2149.41</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B232" t="s">
         <v>867</v>
@@ -24567,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>2250</v>
+        <v>1937.65</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -24584,10 +24607,10 @@
         <v>50399</v>
       </c>
       <c r="G233">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>3325</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -24604,10 +24627,10 @@
         <v>50468</v>
       </c>
       <c r="G234">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H234">
-        <v>2196.5100000000002</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -24627,7 +24650,7 @@
         <v>100</v>
       </c>
       <c r="H235">
-        <v>2737.83</v>
+        <v>2196.5100000000002</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -24644,10 +24667,10 @@
         <v>100197</v>
       </c>
       <c r="G236">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H236">
-        <v>2351.7600000000002</v>
+        <v>2737.83</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -24667,7 +24690,7 @@
         <v>250</v>
       </c>
       <c r="H237">
-        <v>2909.6</v>
+        <v>2351.7600000000002</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -24704,10 +24727,10 @@
         <v>50306</v>
       </c>
       <c r="G239">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H239">
-        <v>3157.68</v>
+        <v>2909.6</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -24724,10 +24747,10 @@
         <v>49</v>
       </c>
       <c r="G240">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H240">
-        <v>2498.54</v>
+        <v>3157.68</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -24747,7 +24770,7 @@
         <v>250</v>
       </c>
       <c r="H241">
-        <v>2394.3000000000002</v>
+        <v>2498.54</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -24764,10 +24787,10 @@
         <v>50462</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H242">
-        <v>1450</v>
+        <v>2394.3000000000002</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -24787,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>2500</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -24804,10 +24827,10 @@
         <v>50436</v>
       </c>
       <c r="G244">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>3608.79</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -24824,10 +24847,10 @@
         <v>50364</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="H245">
-        <v>3800</v>
+        <v>3608.79</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -24847,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>2498.4</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -24864,10 +24887,10 @@
         <v>50194</v>
       </c>
       <c r="G247">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>2932.13</v>
+        <v>2498.4</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -24884,10 +24907,10 @@
         <v>100235</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2932.13</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -24927,7 +24950,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>2450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -24947,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -24964,10 +24987,10 @@
         <v>61</v>
       </c>
       <c r="G252">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>2800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -24984,10 +25007,10 @@
         <v>50233</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H253">
-        <v>1436.58</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -25007,7 +25030,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1436.58</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -25027,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>1783.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -25047,7 +25070,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>1700</v>
+        <v>1783.53</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -25064,10 +25087,10 @@
         <v>50196</v>
       </c>
       <c r="G257">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>1850</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -25084,10 +25107,10 @@
         <v>28</v>
       </c>
       <c r="G258">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="H258">
-        <v>2250</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -25104,10 +25127,10 @@
         <v>50207</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -25127,7 +25150,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>3275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -25144,10 +25167,10 @@
         <v>50100</v>
       </c>
       <c r="G261">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>1957.65</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -25164,10 +25187,10 @@
         <v>50154</v>
       </c>
       <c r="G262">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H262">
-        <v>2169.06</v>
+        <v>1957.65</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -25184,10 +25207,10 @@
         <v>100250</v>
       </c>
       <c r="G263">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2169.06</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -25244,10 +25267,10 @@
         <v>93</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H266">
-        <v>1816.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -25267,7 +25290,7 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>1834.12</v>
+        <v>1816.47</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -25284,10 +25307,10 @@
         <v>50441</v>
       </c>
       <c r="G268">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>2900</v>
+        <v>1834.12</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -25304,10 +25327,10 @@
         <v>50130</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H269">
-        <v>3275</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -25327,7 +25350,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>2663.43</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -25344,10 +25367,10 @@
         <v>100121</v>
       </c>
       <c r="G271">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>3250</v>
+        <v>2663.43</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -25364,10 +25387,10 @@
         <v>100260</v>
       </c>
       <c r="G272">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H272">
-        <v>1600</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -25384,10 +25407,10 @@
         <v>50430</v>
       </c>
       <c r="G273">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H273">
-        <v>2082</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -25404,10 +25427,10 @@
         <v>100172</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H274">
-        <v>3500</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -25427,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>2056.4699999999998</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -25444,10 +25467,10 @@
         <v>50408</v>
       </c>
       <c r="G276">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2056.4699999999998</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -25464,7 +25487,7 @@
         <v>50298</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -25484,7 +25507,7 @@
         <v>50138</v>
       </c>
       <c r="G278">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25504,10 +25527,10 @@
         <v>54</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H279">
-        <v>2663.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -25527,7 +25550,7 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>3383.25</v>
+        <v>2663.43</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -25544,10 +25567,10 @@
         <v>70</v>
       </c>
       <c r="G281">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>3383.25</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -25564,10 +25587,10 @@
         <v>50297</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H282">
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -25584,10 +25607,10 @@
         <v>100251</v>
       </c>
       <c r="G283">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H283">
-        <v>2394.3000000000002</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -25604,10 +25627,10 @@
         <v>100153</v>
       </c>
       <c r="G284">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H284">
-        <v>1503.32</v>
+        <v>2394.3000000000002</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -25664,10 +25687,10 @@
         <v>50310</v>
       </c>
       <c r="G287">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H287">
-        <v>2255</v>
+        <v>1503.32</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -25744,10 +25767,10 @@
         <v>100102</v>
       </c>
       <c r="G291">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H291">
-        <v>1503.32</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -25764,10 +25787,10 @@
         <v>6</v>
       </c>
       <c r="G292">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H292">
-        <v>2300</v>
+        <v>1503.32</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -25787,7 +25810,7 @@
         <v>150</v>
       </c>
       <c r="H293">
-        <v>2255</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -25804,10 +25827,10 @@
         <v>100234</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H294">
-        <v>3275</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -25824,10 +25847,10 @@
         <v>26</v>
       </c>
       <c r="G295">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H295">
-        <v>3500</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -25844,10 +25867,10 @@
         <v>23</v>
       </c>
       <c r="G296">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H296">
-        <v>2850</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -25864,10 +25887,10 @@
         <v>100150</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H297">
-        <v>2516.83</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -25884,10 +25907,10 @@
         <v>67</v>
       </c>
       <c r="G298">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H298">
-        <v>2040</v>
+        <v>2516.83</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -25907,7 +25930,7 @@
         <v>200</v>
       </c>
       <c r="H299">
-        <v>2175.29</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -25924,10 +25947,10 @@
         <v>100179</v>
       </c>
       <c r="G300">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2175.29</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -25984,10 +26007,10 @@
         <v>21</v>
       </c>
       <c r="G303">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H303">
-        <v>2950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -26004,10 +26027,10 @@
         <v>100190</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H304">
-        <v>3275</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -26027,7 +26050,7 @@
         <v>0</v>
       </c>
       <c r="H305">
-        <v>3250</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -26047,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -26067,7 +26090,7 @@
         <v>0</v>
       </c>
       <c r="H307">
-        <v>2275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -26084,10 +26107,10 @@
         <v>50200</v>
       </c>
       <c r="G308">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -26164,7 +26187,7 @@
         <v>50292</v>
       </c>
       <c r="G312">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -26184,10 +26207,10 @@
         <v>50185</v>
       </c>
       <c r="G313">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H313">
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
@@ -26204,10 +26227,10 @@
         <v>50166</v>
       </c>
       <c r="G314">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H314">
-        <v>2855.46</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
@@ -26224,10 +26247,10 @@
         <v>90</v>
       </c>
       <c r="G315">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2855.46</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -26244,10 +26267,10 @@
         <v>4</v>
       </c>
       <c r="G316">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H316">
-        <v>2350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
@@ -26264,10 +26287,10 @@
         <v>50312</v>
       </c>
       <c r="G317">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H317">
-        <v>2150</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
@@ -26287,7 +26310,7 @@
         <v>0</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
@@ -26344,10 +26367,10 @@
         <v>50434</v>
       </c>
       <c r="G321">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H321">
-        <v>2076.4699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
@@ -26364,10 +26387,10 @@
         <v>50444</v>
       </c>
       <c r="G322">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H322">
-        <v>2053.7399999999998</v>
+        <v>2076.4699999999998</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
@@ -26387,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2053.7399999999998</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
@@ -26407,7 +26430,7 @@
         <v>0</v>
       </c>
       <c r="H324">
-        <v>6282.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -26424,10 +26447,10 @@
         <v>50265</v>
       </c>
       <c r="G325">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H325">
-        <v>3500</v>
+        <v>6282.85</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -26444,10 +26467,10 @@
         <v>24</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H326">
-        <v>3123</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -26467,7 +26490,7 @@
         <v>0</v>
       </c>
       <c r="H327">
-        <v>1830.43</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -26484,10 +26507,10 @@
         <v>100126</v>
       </c>
       <c r="G328">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H328">
-        <v>1784.67</v>
+        <v>1830.43</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -26504,10 +26527,10 @@
         <v>20</v>
       </c>
       <c r="G329">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H329">
-        <v>2500</v>
+        <v>1784.67</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -26524,10 +26547,10 @@
         <v>50368</v>
       </c>
       <c r="G330">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -26544,10 +26567,10 @@
         <v>100152</v>
       </c>
       <c r="G331">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H331">
-        <v>3800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -26564,10 +26587,10 @@
         <v>50335</v>
       </c>
       <c r="G332">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H332">
-        <v>2498.4</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -26584,10 +26607,10 @@
         <v>100154</v>
       </c>
       <c r="G333">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H333">
-        <v>2234.29</v>
+        <v>2498.4</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -26604,10 +26627,10 @@
         <v>92</v>
       </c>
       <c r="G334">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H334">
-        <v>2300</v>
+        <v>2234.29</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -26624,10 +26647,10 @@
         <v>50445</v>
       </c>
       <c r="G335">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H335">
-        <v>1560</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -26644,10 +26667,10 @@
         <v>50338</v>
       </c>
       <c r="G336">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H336">
-        <v>1710.59</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -26664,10 +26687,10 @@
         <v>100089</v>
       </c>
       <c r="G337">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H337">
-        <v>2364.3000000000002</v>
+        <v>1710.59</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -26687,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="H338">
-        <v>2100</v>
+        <v>2364.3000000000002</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -26707,7 +26730,7 @@
         <v>0</v>
       </c>
       <c r="H339">
-        <v>2449.11</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -26727,7 +26750,7 @@
         <v>0</v>
       </c>
       <c r="H340">
-        <v>2498.54</v>
+        <v>2449.11</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -26744,10 +26767,10 @@
         <v>69</v>
       </c>
       <c r="G341">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H341">
-        <v>2650</v>
+        <v>2498.54</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -26764,10 +26787,10 @@
         <v>27</v>
       </c>
       <c r="G342">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H342">
-        <v>2593.81</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -26784,10 +26807,10 @@
         <v>100105</v>
       </c>
       <c r="G343">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H343">
-        <v>2449.11</v>
+        <v>2593.81</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -26807,7 +26830,7 @@
         <v>0</v>
       </c>
       <c r="H344">
-        <v>3608.8</v>
+        <v>2449.11</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -26824,10 +26847,10 @@
         <v>50132</v>
       </c>
       <c r="G345">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="H345">
-        <v>2663.43</v>
+        <v>3608.8</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -26844,10 +26867,10 @@
         <v>19</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="H346">
-        <v>3383.25</v>
+        <v>2663.43</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -26864,10 +26887,10 @@
         <v>50274</v>
       </c>
       <c r="G347">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="H347">
-        <v>2491.65</v>
+        <v>3383.25</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
@@ -26884,10 +26907,10 @@
         <v>50440</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="H348">
-        <v>2316.23</v>
+        <v>2491.65</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
@@ -26904,10 +26927,10 @@
         <v>100166</v>
       </c>
       <c r="G349">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H349">
-        <v>2150</v>
+        <v>2316.23</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
@@ -26924,10 +26947,10 @@
         <v>50083</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H350">
-        <v>2400</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
@@ -26947,7 +26970,7 @@
         <v>0</v>
       </c>
       <c r="H351">
-        <v>2016.47</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -26967,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2016.47</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
@@ -26987,7 +27010,7 @@
         <v>0</v>
       </c>
       <c r="H353">
-        <v>2650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -27004,10 +27027,10 @@
         <v>50099</v>
       </c>
       <c r="G354">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
@@ -27024,10 +27047,10 @@
         <v>100124</v>
       </c>
       <c r="G355">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H355">
-        <v>1560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
@@ -27047,7 +27070,7 @@
         <v>0</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -27084,10 +27107,10 @@
         <v>50234</v>
       </c>
       <c r="G358">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H358">
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
@@ -27104,10 +27127,10 @@
         <v>50158</v>
       </c>
       <c r="G359">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H359">
-        <v>1650</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -27127,7 +27150,7 @@
         <v>0</v>
       </c>
       <c r="H360">
-        <v>2500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -27144,10 +27167,10 @@
         <v>100110</v>
       </c>
       <c r="G361">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
@@ -27164,10 +27187,10 @@
         <v>50410</v>
       </c>
       <c r="G362">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H362">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
@@ -27187,7 +27210,7 @@
         <v>200</v>
       </c>
       <c r="H363">
-        <v>2737.83</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
@@ -27204,10 +27227,10 @@
         <v>100123</v>
       </c>
       <c r="G364">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H364">
-        <v>4000</v>
+        <v>2737.83</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
@@ -27224,10 +27247,10 @@
         <v>50188</v>
       </c>
       <c r="G365">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H365">
-        <v>2449.11</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
@@ -27244,10 +27267,10 @@
         <v>100174</v>
       </c>
       <c r="G366">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="H366">
-        <v>3608.8</v>
+        <v>2449.11</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
@@ -27264,10 +27287,10 @@
         <v>100237</v>
       </c>
       <c r="G367">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H367">
-        <v>2170</v>
+        <v>3608.8</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -27284,10 +27307,10 @@
         <v>50409</v>
       </c>
       <c r="G368">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -27324,7 +27347,7 @@
         <v>50095</v>
       </c>
       <c r="G370">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H370">
         <v>0</v>
@@ -27344,10 +27367,10 @@
         <v>100225</v>
       </c>
       <c r="G371">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H371">
-        <v>4750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -27367,7 +27390,7 @@
         <v>350</v>
       </c>
       <c r="H372">
-        <v>2202.35</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
@@ -27384,10 +27407,10 @@
         <v>60</v>
       </c>
       <c r="G373">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H373">
-        <v>2888.78</v>
+        <v>2202.35</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -27404,10 +27427,10 @@
         <v>50182</v>
       </c>
       <c r="G374">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H374">
-        <v>5361.15</v>
+        <v>2888.78</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -27424,10 +27447,10 @@
         <v>50447</v>
       </c>
       <c r="G375">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H375">
-        <v>2750</v>
+        <v>5361.15</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -27444,10 +27467,10 @@
         <v>57</v>
       </c>
       <c r="G376">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
@@ -27461,7 +27484,7 @@
         <v>300</v>
       </c>
       <c r="H377">
-        <v>3955.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -27472,10 +27495,10 @@
         <v>1295</v>
       </c>
       <c r="G378">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="H378">
-        <v>2394.3000000000002</v>
+        <v>3955.8</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -27486,10 +27509,10 @@
         <v>1297</v>
       </c>
       <c r="G379">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H379">
-        <v>2700</v>
+        <v>2394.3000000000002</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
@@ -27500,10 +27523,10 @@
         <v>1299</v>
       </c>
       <c r="G380">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H380">
-        <v>2000</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
@@ -27514,10 +27537,10 @@
         <v>1301</v>
       </c>
       <c r="G381">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H381">
-        <v>2909.6</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
@@ -27531,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H382">
-        <v>2394.3000000000002</v>
+        <v>2909.6</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -27545,7 +27568,7 @@
         <v>0</v>
       </c>
       <c r="H383">
-        <v>2928.69</v>
+        <v>2394.3000000000002</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
@@ -27556,10 +27579,10 @@
         <v>1307</v>
       </c>
       <c r="G384">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H384">
-        <v>2316.23</v>
+        <v>2928.69</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -27570,10 +27593,10 @@
         <v>1309</v>
       </c>
       <c r="G385">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2316.23</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -27584,7 +27607,7 @@
         <v>1311</v>
       </c>
       <c r="G386">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -27601,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="H387">
-        <v>1700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -27615,7 +27638,7 @@
         <v>0</v>
       </c>
       <c r="H388">
-        <v>2224.71</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -27629,7 +27652,7 @@
         <v>0</v>
       </c>
       <c r="H389">
-        <v>2170</v>
+        <v>2224.71</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -27643,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -27657,7 +27680,7 @@
         <v>0</v>
       </c>
       <c r="H391">
-        <v>1560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -27671,6 +27694,20 @@
         <v>0</v>
       </c>
       <c r="H392">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
         <v>0</v>
       </c>
     </row>
@@ -27680,6 +27717,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a5dd83b0615c7ab65f6e497dc3f1a67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b3083ab368e81f90f854d4b93d60013" ns2:_="" ns3:_="">
     <xsd:import namespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
@@ -27914,34 +27971,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1DC94A-1ACB-4339-996D-AB8AFA563470}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02D45446-CE23-4BE6-BF3A-D8E3D75CBD51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84EF65FB-765B-4715-ACEC-8D06E370F61D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97711FD6-2BD8-447F-A9F2-7D3BE41E0148}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90593CE-0898-402B-87E4-57DC9F68FD3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90842D73-4EEC-418E-AA0E-AB1357A81A54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
+    <ds:schemaRef ds:uri="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>